--- a/00_schedule/リスト.xlsx
+++ b/00_schedule/リスト.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\81902\Desktop\teamC\BIO4-REPRODUCTION\99_others\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\BIO4-REPRODUCTION\00_schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="45">
   <si>
     <t>エリア１</t>
   </si>
@@ -302,6 +302,32 @@
     <t>enemy ver1.0</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>player ver1.1</t>
+  </si>
+  <si>
+    <t>enemy ver1.1</t>
+  </si>
+  <si>
+    <t>走る、構える、打つモーション</t>
+    <rPh sb="0" eb="1">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ニュートラル、走るモーション</t>
+    <rPh sb="7" eb="8">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -494,7 +520,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -538,6 +564,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -559,93 +586,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="253">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2418,6 +2365,86 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FF999999"/>
           <bgColor theme="7" tint="0.79998168889431442"/>
         </patternFill>
@@ -2825,10 +2852,10 @@
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="20"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="9" t="s">
@@ -2939,7 +2966,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2957,22 +2984,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -3008,7 +3035,7 @@
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -3030,7 +3057,7 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -3046,11 +3073,21 @@
       <c r="B6" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
+      <c r="C6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="5"/>
       <c r="J6" s="10" t="s">
         <v>14</v>
@@ -3060,11 +3097,21 @@
       <c r="B7" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="C7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="27" t="s">
+        <v>44</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="J7" s="10" t="s">
         <v>13</v>
@@ -3296,7 +3343,7 @@
       </c>
       <c r="C29" s="15">
         <f>SUM(C4:C25)/$C$28</f>
-        <v>9.0909090909090922E-3</v>
+        <v>1.8181818181818184E-2</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -7361,52 +7408,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="225" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="224" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="223" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="222" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="221" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="220" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="219" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="218" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="217" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="216" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7529,22 +7576,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -11781,262 +11828,262 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="225" priority="63" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="215" priority="63" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="224" priority="64" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="214" priority="64" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="223" priority="65" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="213" priority="65" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="222" priority="66" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="212" priority="66" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="221" priority="67" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="211" priority="67" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="220" priority="68" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="210" priority="68" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="219" priority="69" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="209" priority="69" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="218" priority="70" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="208" priority="70" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="217" priority="71" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="207" priority="71" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="216" priority="72" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="206" priority="72" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="215" priority="73" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="205" priority="73" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="214" priority="74" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="204" priority="74" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="213" priority="58" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="203" priority="58" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="212" priority="59" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="202" priority="59" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="211" priority="60" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="201" priority="60" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="210" priority="61" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="200" priority="61" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="209" priority="62" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="199" priority="62" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="208" priority="53" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="198" priority="53" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="207" priority="54" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="197" priority="54" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="206" priority="55" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="196" priority="55" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="205" priority="56" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="195" priority="56" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="204" priority="57" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="194" priority="57" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="203" priority="48" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="193" priority="48" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="202" priority="49" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="192" priority="49" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="201" priority="50" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="191" priority="50" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="200" priority="51" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="190" priority="51" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="199" priority="52" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="189" priority="52" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="198" priority="43" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="188" priority="43" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="197" priority="44" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="187" priority="44" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="196" priority="45" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="186" priority="45" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="195" priority="46" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="185" priority="46" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="194" priority="47" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="184" priority="47" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="193" priority="38" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="183" priority="38" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="192" priority="39" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="182" priority="39" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="191" priority="40" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="181" priority="40" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="190" priority="41" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="180" priority="41" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="189" priority="42" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="179" priority="42" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="188" priority="33" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="178" priority="33" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="187" priority="34" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="177" priority="34" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="186" priority="35" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="176" priority="35" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="185" priority="36" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="175" priority="36" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="184" priority="37" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="174" priority="37" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="183" priority="28" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="173" priority="28" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="182" priority="29" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="172" priority="29" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="181" priority="30" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="171" priority="30" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="180" priority="31" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="170" priority="31" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="179" priority="32" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="169" priority="32" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="178" priority="23" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="168" priority="23" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="177" priority="24" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="167" priority="24" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="176" priority="25" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="166" priority="25" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="175" priority="26" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="165" priority="26" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="174" priority="27" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="164" priority="27" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12055,77 +12102,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="173" priority="8" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="163" priority="8" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="172" priority="18" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="162" priority="18" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="171" priority="19" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="161" priority="19" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="170" priority="20" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="160" priority="20" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="169" priority="21" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="159" priority="21" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="168" priority="22" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="158" priority="22" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="167" priority="13" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="157" priority="13" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="166" priority="14" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="156" priority="14" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="165" priority="15" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="155" priority="15" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="164" priority="16" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="154" priority="16" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="163" priority="17" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="153" priority="17" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="162" priority="9" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="152" priority="9" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="161" priority="10" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="151" priority="10" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="160" priority="11" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="150" priority="11" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="159" priority="12" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="149" priority="12" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12144,27 +12191,27 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="158" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="148" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="157" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="147" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="156" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="146" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="155" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="145" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="154" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="144" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12257,22 +12304,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="21"/>
+      <c r="D1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -16494,97 +16541,97 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="153" priority="29" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="143" priority="29" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="152" priority="30" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="142" priority="30" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="151" priority="32" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="141" priority="32" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="150" priority="39" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="140" priority="39" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="139" priority="13" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="148" priority="23" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="138" priority="23" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="147" priority="24" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="137" priority="24" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="146" priority="25" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="136" priority="25" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="145" priority="26" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="135" priority="26" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="144" priority="27" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="134" priority="27" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="143" priority="18" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="133" priority="18" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="142" priority="19" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="132" priority="19" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="141" priority="20" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="131" priority="20" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="140" priority="21" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="130" priority="21" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="139" priority="22" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="129" priority="22" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="138" priority="14" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="128" priority="14" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="137" priority="15" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="127" priority="15" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="136" priority="16" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="126" priority="16" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="135" priority="17" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="125" priority="17" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16603,52 +16650,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="134" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="124" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="133" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="123" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="132" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="122" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="131" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="121" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="130" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="120" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="129" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="119" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="128" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="118" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="127" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="117" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="126" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="116" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="125" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="115" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C26)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16839,22 +16886,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -21058,212 +21105,212 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="118" priority="32" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="108" priority="32" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="117" priority="33" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="107" priority="33" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="116" priority="34" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="106" priority="34" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="115" priority="35" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="105" priority="35" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="114" priority="36" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="104" priority="36" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="113" priority="37" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="103" priority="37" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="112" priority="38" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="102" priority="38" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="101" priority="39" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="110" priority="40" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="100" priority="40" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="109" priority="41" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="99" priority="41" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="108" priority="42" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="98" priority="42" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="107" priority="43" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="97" priority="43" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="106" priority="27" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="96" priority="27" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="105" priority="28" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="95" priority="28" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="104" priority="29" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="94" priority="29" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="103" priority="30" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="93" priority="30" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="102" priority="31" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="92" priority="31" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="101" priority="22" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="91" priority="22" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="100" priority="23" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="90" priority="23" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="89" priority="24" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="98" priority="25" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="88" priority="25" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="97" priority="26" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="87" priority="26" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="96" priority="17" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="86" priority="17" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="95" priority="18" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="85" priority="18" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="84" priority="19" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="93" priority="20" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="83" priority="20" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="82" priority="21" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="81" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="80" priority="12" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="79" priority="13" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="88" priority="14" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="78" priority="14" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="87" priority="15" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="77" priority="15" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="86" priority="16" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="76" priority="16" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="75" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="84" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="74" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="73" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="72" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="71" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="70" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="79" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="69" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="77" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="67" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21355,22 +21402,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="22" t="s">
+      <c r="C1" s="25"/>
+      <c r="D1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
@@ -21406,7 +21453,7 @@
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="26" t="s">
+      <c r="E4" s="19" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="5" t="s">
@@ -21428,7 +21475,7 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="19" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -25637,287 +25684,287 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="76" priority="58" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="66" priority="58" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="65" priority="59" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="64" priority="60" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="73" priority="61" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="63" priority="61" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="72" priority="62" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="62" priority="62" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="71" priority="63" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="61" priority="63" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="70" priority="64" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="60" priority="64" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="69" priority="65" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="59" priority="65" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="68" priority="66" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="58" priority="66" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="67" priority="67" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="57" priority="67" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="66" priority="68" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="56" priority="68" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="65" priority="69" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="55" priority="69" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="64" priority="53" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="54" priority="53" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="63" priority="54" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="53" priority="54" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="62" priority="55" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="52" priority="55" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="61" priority="56" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="51" priority="56" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="60" priority="57" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="50" priority="57" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="59" priority="48" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="49" priority="48" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="58" priority="49" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="48" priority="49" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="57" priority="50" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="47" priority="50" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="56" priority="51" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="46" priority="51" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="55" priority="52" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="45" priority="52" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="54" priority="43" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="44" priority="43" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="53" priority="44" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="43" priority="44" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="52" priority="45" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="42" priority="45" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="51" priority="46" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="41" priority="46" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="50" priority="47" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="40" priority="47" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="49" priority="38" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="39" priority="38" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="48" priority="39" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="38" priority="39" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="47" priority="40" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="46" priority="41" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="45" priority="42" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="35" priority="42" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="44" priority="33" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="34" priority="33" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="43" priority="34" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="33" priority="34" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="42" priority="35" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="32" priority="35" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="41" priority="36" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="31" priority="36" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="40" priority="37" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="30" priority="37" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="39" priority="28" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="29" priority="28" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="38" priority="29" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="37" priority="30" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="36" priority="31" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="35" priority="32" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="34" priority="13" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="24" priority="13" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="33" priority="23" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="23" priority="23" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="32" priority="24" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="22" priority="24" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="31" priority="25" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="21" priority="25" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="30" priority="26" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="20" priority="26" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="29" priority="27" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="19" priority="27" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="28" priority="18" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="25" priority="21" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="24" priority="22" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="14" priority="22" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="23" priority="14" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="22" priority="15" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="12" priority="15" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="21" priority="16" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="11" priority="16" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="20" priority="17" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="10" priority="17" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -25936,52 +25983,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="9" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="17" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="16" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="6" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="14" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="4" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C27)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/00_schedule/リスト.xlsx
+++ b/00_schedule/リスト.xlsx
@@ -9,29 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="参照" sheetId="12" r:id="rId1"/>
     <sheet name="全リスト" sheetId="7" r:id="rId2"/>
-    <sheet name="プレイヤー" sheetId="11" r:id="rId3"/>
-    <sheet name="敵" sheetId="8" r:id="rId4"/>
-    <sheet name="UI" sheetId="9" r:id="rId5"/>
-    <sheet name="3D" sheetId="10" r:id="rId6"/>
+    <sheet name="プログラム" sheetId="11" r:id="rId3"/>
+    <sheet name="UI" sheetId="9" r:id="rId4"/>
+    <sheet name="3D" sheetId="10" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'3D'!$B$3:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">UI!$B$3:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">プレイヤー!$B$3:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'3D'!$B$3:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">UI!$B$3:$H$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">プログラム!$B$3:$H$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">全リスト!$B$3:$H$15</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">敵!$B$3:$H$15</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="47">
   <si>
     <t>エリア１</t>
   </si>
@@ -55,15 +53,6 @@
   </si>
   <si>
     <t>完了</t>
-  </si>
-  <si>
-    <t>敵001</t>
-  </si>
-  <si>
-    <t>敵002</t>
-  </si>
-  <si>
-    <t>ギミック001</t>
   </si>
   <si>
     <t>ギミック002</t>
@@ -194,17 +183,6 @@
     <rPh sb="3" eb="6">
       <t>ゴウケイスウ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>敵リスト</t>
-    <rPh sb="0" eb="1">
-      <t>テキ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>プレイヤーリスト</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -374,6 +352,10 @@
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>プログラムリスト</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -568,7 +550,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -577,14 +559,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -617,6 +593,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -638,15 +617,52 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="258">
+  <dxfs count="233">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1568,280 +1584,40 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF999999"/>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE69138"/>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFD966"/>
-          <bgColor rgb="FFFFD966"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFF2CC"/>
-          <bgColor rgb="FFFFF2CC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2946,98 +2722,98 @@
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="21"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="22"/>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>26</v>
-      </c>
-    </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="13">
+      <c r="A10" s="11">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="13">
+      <c r="A11" s="11">
         <v>0.1</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="13">
+      <c r="A12" s="11">
         <v>0.2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="13">
+      <c r="A13" s="11">
         <v>0.3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="13">
+      <c r="A14" s="11">
         <v>0.4</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="13">
+      <c r="A15" s="11">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="13">
+      <c r="A16" s="11">
         <v>0.6</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="13">
+      <c r="A17" s="11">
         <v>0.7</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="13">
+      <c r="A18" s="11">
         <v>0.8</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="13">
+      <c r="A19" s="11">
         <v>0.9</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="13">
+      <c r="A20" s="11">
         <v>1</v>
       </c>
     </row>
@@ -3058,9 +2834,9 @@
   </sheetPr>
   <dimension ref="B1:J1002"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3078,35 +2854,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -3117,323 +2893,323 @@
       <c r="H3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J3" s="29"/>
+      <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
+      <c r="G6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12">
         <v>0.1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="G7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12">
         <v>0.1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
+      <c r="D8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="10" t="s">
+      <c r="F8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="14">
+    <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="12">
         <v>0.1</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="20" t="s">
+      <c r="D9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="20" t="s">
+      <c r="F9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="20" t="s">
+      <c r="G9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="G8" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="5"/>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C26" s="2"/>
@@ -3443,19 +3219,19 @@
       <c r="C27" s="2"/>
     </row>
     <row r="28" spans="2:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="17">
+      <c r="B28" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="15">
         <f>COUNTA(B4:B25)</f>
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="15">
+      <c r="B29" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="13">
         <f>SUM(C4:C25)/$C$28</f>
         <v>2.7272727272727271E-2</v>
       </c>
@@ -7359,137 +7135,137 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="257" priority="29" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="232" priority="29" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="256" priority="30" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="231" priority="30" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="255" priority="31" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="230" priority="31" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="254" priority="32" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="229" priority="32" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="253" priority="33" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="228" priority="33" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="252" priority="34" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="227" priority="34" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="251" priority="35" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="226" priority="35" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="250" priority="36" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="225" priority="36" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="249" priority="37" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="224" priority="37" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="248" priority="38" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="223" priority="38" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="247" priority="39" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="222" priority="39" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="246" priority="40" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="221" priority="40" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="245" priority="14" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="220" priority="14" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="244" priority="24" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="219" priority="24" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="243" priority="25" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="218" priority="25" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="242" priority="26" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="217" priority="26" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="241" priority="27" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="216" priority="27" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="240" priority="28" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="215" priority="28" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="239" priority="19" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="214" priority="19" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="238" priority="20" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="213" priority="20" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="237" priority="21" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="212" priority="21" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="236" priority="22" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="211" priority="22" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="235" priority="23" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="210" priority="23" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="234" priority="15" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="209" priority="15" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="233" priority="16" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="208" priority="16" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="232" priority="17" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="207" priority="17" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="231" priority="18" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="206" priority="18" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7522,52 +7298,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="230" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="205" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="229" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="204" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="228" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="203" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="227" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="202" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="226" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="201" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="225" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="200" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="224" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="199" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="223" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="198" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="222" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="197" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="221" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="196" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7670,9 +7446,9 @@
   </sheetPr>
   <dimension ref="B1:J1004"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F2"/>
+      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7690,35 +7466,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="22"/>
+      <c r="D1" s="24" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -7732,299 +7508,305 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="10" t="s">
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="10" t="s">
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
@@ -11942,267 +11724,267 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="220" priority="63" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="195" priority="69" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="219" priority="64" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="194" priority="70" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="218" priority="65" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="193" priority="71" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="217" priority="66" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="192" priority="72" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="216" priority="67" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="191" priority="73" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="215" priority="68" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="190" priority="74" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="214" priority="69" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="189" priority="75" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="213" priority="70" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="188" priority="76" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="212" priority="71" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="187" priority="77" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="211" priority="72" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="186" priority="78" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="210" priority="73" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="185" priority="79" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="209" priority="74" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="184" priority="80" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="208" priority="58" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="207" priority="59" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="206" priority="60" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="205" priority="61" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B12">
-    <cfRule type="containsText" dxfId="204" priority="62" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="containsText" dxfId="183" priority="64" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="containsText" dxfId="182" priority="65" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="containsText" dxfId="181" priority="66" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="containsText" dxfId="180" priority="67" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="containsText" dxfId="179" priority="68" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="203" priority="53" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="178" priority="59" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="202" priority="54" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="177" priority="60" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="201" priority="55" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="176" priority="61" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="200" priority="56" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="175" priority="62" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="199" priority="57" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="174" priority="63" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="198" priority="48" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="173" priority="54" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="197" priority="49" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="172" priority="55" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="196" priority="50" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="171" priority="56" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="195" priority="51" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="170" priority="57" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="194" priority="52" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="169" priority="58" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="193" priority="43" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="168" priority="49" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="192" priority="44" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="167" priority="50" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="191" priority="45" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="166" priority="51" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="190" priority="46" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="165" priority="52" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="189" priority="47" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="164" priority="53" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="188" priority="38" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="163" priority="44" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="187" priority="39" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="162" priority="45" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="186" priority="40" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="161" priority="46" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="185" priority="41" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="160" priority="47" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="184" priority="42" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="159" priority="48" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="183" priority="33" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="158" priority="39" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="182" priority="34" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="157" priority="40" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="181" priority="35" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="156" priority="41" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="180" priority="36" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="155" priority="42" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="179" priority="37" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="154" priority="43" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="178" priority="28" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="153" priority="34" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="177" priority="29" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="152" priority="35" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="176" priority="30" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="151" priority="36" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="175" priority="31" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="150" priority="37" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="174" priority="32" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="149" priority="38" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="173" priority="23" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="148" priority="29" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="172" priority="24" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="147" priority="30" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="171" priority="25" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="146" priority="31" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="170" priority="26" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="145" priority="32" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="169" priority="27" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="144" priority="33" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="7">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12216,82 +11998,82 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="168" priority="8" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="143" priority="14" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="167" priority="18" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="166" priority="19" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="165" priority="20" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="164" priority="21" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="163" priority="22" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
+  <conditionalFormatting sqref="C5:C15">
+    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C15">
+    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C15">
+    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C15">
+    <cfRule type="containsText" dxfId="139" priority="27" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C15">
+    <cfRule type="containsText" dxfId="138" priority="28" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="162" priority="13" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="161" priority="14" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="136" priority="20" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="160" priority="15" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="135" priority="21" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="159" priority="16" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="158" priority="17" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="157" priority="9" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="132" priority="15" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="156" priority="10" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="131" priority="16" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="155" priority="11" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="154" priority="12" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="129" priority="18" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C24">
-    <cfRule type="dataBar" priority="7">
+  <conditionalFormatting sqref="C5:C24">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -12305,28 +12087,67 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="153" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="128" priority="8" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="152" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="151" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="150" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="149" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="containsText" dxfId="123" priority="2" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="containsText" dxfId="121" priority="4" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B4:C4">
+    <cfRule type="containsText" dxfId="119" priority="6" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C4">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{17D6B000-70C0-4F0E-918A-510A0E21CE67}</x14:id>
+        </ext>
+      </extLst>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
@@ -12366,7 +12187,22 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C24</xm:sqref>
+          <xm:sqref>C5:C24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{17D6B000-70C0-4F0E-918A-510A0E21CE67}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C4</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -12396,4588 +12232,6 @@
     <tabColor rgb="FF6D9EEB"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:J1005"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="4.44140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5546875" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.6640625" customWidth="1"/>
-    <col min="6" max="6" width="27.33203125" customWidth="1"/>
-    <col min="7" max="7" width="55" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" customWidth="1"/>
-    <col min="9" max="9" width="8.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-    </row>
-    <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="1"/>
-    </row>
-    <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="J9" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="J10" s="1"/>
-    </row>
-    <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="J11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
-    </row>
-    <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8"/>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8"/>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-    </row>
-    <row r="32" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-    </row>
-    <row r="221" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-    </row>
-    <row r="225" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-    </row>
-    <row r="231" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-    </row>
-    <row r="238" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-    </row>
-    <row r="264" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-    </row>
-    <row r="265" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-    </row>
-    <row r="267" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-    </row>
-    <row r="268" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-    </row>
-    <row r="269" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-    </row>
-    <row r="270" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-    </row>
-    <row r="271" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-    </row>
-    <row r="272" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-    </row>
-    <row r="273" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-    </row>
-    <row r="274" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-    </row>
-    <row r="275" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-    </row>
-    <row r="276" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-    </row>
-    <row r="277" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-    </row>
-    <row r="278" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-    </row>
-    <row r="279" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-    </row>
-    <row r="280" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-    </row>
-    <row r="281" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-    </row>
-    <row r="282" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-    </row>
-    <row r="283" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-    </row>
-    <row r="284" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-    </row>
-    <row r="285" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-    </row>
-    <row r="286" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-    </row>
-    <row r="287" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-    </row>
-    <row r="288" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-    </row>
-    <row r="289" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-    </row>
-    <row r="290" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-    </row>
-    <row r="291" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-    </row>
-    <row r="292" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-    </row>
-    <row r="293" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-    </row>
-    <row r="294" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-    </row>
-    <row r="295" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-    </row>
-    <row r="296" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-    </row>
-    <row r="297" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-    </row>
-    <row r="298" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-    </row>
-    <row r="299" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-    </row>
-    <row r="300" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-    </row>
-    <row r="301" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-    </row>
-    <row r="302" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-    </row>
-    <row r="303" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-    </row>
-    <row r="304" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-    </row>
-    <row r="305" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-    </row>
-    <row r="306" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-    </row>
-    <row r="307" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-    </row>
-    <row r="308" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-    </row>
-    <row r="309" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-    </row>
-    <row r="310" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-    </row>
-    <row r="311" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-    </row>
-    <row r="312" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-    </row>
-    <row r="313" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-    </row>
-    <row r="314" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-    </row>
-    <row r="315" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-    </row>
-    <row r="316" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-    </row>
-    <row r="317" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-    </row>
-    <row r="318" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-    </row>
-    <row r="319" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-    </row>
-    <row r="320" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-    </row>
-    <row r="321" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-    </row>
-    <row r="322" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-    </row>
-    <row r="323" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-    </row>
-    <row r="324" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-    </row>
-    <row r="325" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-    </row>
-    <row r="326" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-    </row>
-    <row r="327" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-    </row>
-    <row r="328" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-    </row>
-    <row r="329" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-    </row>
-    <row r="330" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-    </row>
-    <row r="331" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-    </row>
-    <row r="332" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-    </row>
-    <row r="333" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-    </row>
-    <row r="334" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-    </row>
-    <row r="335" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-    </row>
-    <row r="336" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-    </row>
-    <row r="337" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-    </row>
-    <row r="338" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-    </row>
-    <row r="339" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-    </row>
-    <row r="340" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-    </row>
-    <row r="341" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-    </row>
-    <row r="342" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-    </row>
-    <row r="343" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-    </row>
-    <row r="344" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-    </row>
-    <row r="345" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-    </row>
-    <row r="346" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-    </row>
-    <row r="347" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-    </row>
-    <row r="348" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-    </row>
-    <row r="349" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-    </row>
-    <row r="350" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-    </row>
-    <row r="351" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-    </row>
-    <row r="352" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-    </row>
-    <row r="353" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-    </row>
-    <row r="354" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-    </row>
-    <row r="355" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-    </row>
-    <row r="356" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-    </row>
-    <row r="357" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-    </row>
-    <row r="359" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-    </row>
-    <row r="364" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-    </row>
-    <row r="365" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-    </row>
-    <row r="366" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-    </row>
-    <row r="367" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-    </row>
-    <row r="368" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-    </row>
-    <row r="369" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-    </row>
-    <row r="370" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-    </row>
-    <row r="371" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-    </row>
-    <row r="372" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-    </row>
-    <row r="373" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-    </row>
-    <row r="374" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-    </row>
-    <row r="375" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-    </row>
-    <row r="376" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-    </row>
-    <row r="378" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-    </row>
-    <row r="379" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-    </row>
-    <row r="380" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-    </row>
-    <row r="381" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-    </row>
-    <row r="382" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-    </row>
-    <row r="383" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-    </row>
-    <row r="384" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-    </row>
-    <row r="387" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-    </row>
-    <row r="388" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-    </row>
-    <row r="389" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-    </row>
-    <row r="390" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-    </row>
-    <row r="391" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-    </row>
-    <row r="393" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-    </row>
-    <row r="394" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-    </row>
-    <row r="396" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-    </row>
-    <row r="397" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-    </row>
-    <row r="399" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-    </row>
-    <row r="403" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-    </row>
-    <row r="405" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-    </row>
-    <row r="406" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-    </row>
-    <row r="407" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-    </row>
-    <row r="408" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-    </row>
-    <row r="409" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-    </row>
-    <row r="410" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-    </row>
-    <row r="411" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-    </row>
-    <row r="412" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-    </row>
-    <row r="414" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-    </row>
-    <row r="415" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-    </row>
-    <row r="417" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-    </row>
-    <row r="419" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-    </row>
-    <row r="420" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-    </row>
-    <row r="421" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-    </row>
-    <row r="422" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-    </row>
-    <row r="423" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-    </row>
-    <row r="424" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-    </row>
-    <row r="425" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-    </row>
-    <row r="426" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-    </row>
-    <row r="427" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-    </row>
-    <row r="428" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-    </row>
-    <row r="429" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-    </row>
-    <row r="430" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-    </row>
-    <row r="431" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-    </row>
-    <row r="432" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-    </row>
-    <row r="433" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-    </row>
-    <row r="434" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-    </row>
-    <row r="435" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-    </row>
-    <row r="436" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-    </row>
-    <row r="437" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-    </row>
-    <row r="438" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-    </row>
-    <row r="439" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-    </row>
-    <row r="440" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-    </row>
-    <row r="441" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-    </row>
-    <row r="442" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-    </row>
-    <row r="443" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-    </row>
-    <row r="444" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-    </row>
-    <row r="445" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-    </row>
-    <row r="446" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-    </row>
-    <row r="447" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-    </row>
-    <row r="448" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-    </row>
-    <row r="449" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-    </row>
-    <row r="450" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-    </row>
-    <row r="451" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-    </row>
-    <row r="452" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-    </row>
-    <row r="453" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
-    </row>
-    <row r="454" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B454" s="2"/>
-      <c r="C454" s="2"/>
-    </row>
-    <row r="455" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B455" s="2"/>
-      <c r="C455" s="2"/>
-    </row>
-    <row r="456" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B456" s="2"/>
-      <c r="C456" s="2"/>
-    </row>
-    <row r="457" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B457" s="2"/>
-      <c r="C457" s="2"/>
-    </row>
-    <row r="458" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B458" s="2"/>
-      <c r="C458" s="2"/>
-    </row>
-    <row r="459" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B459" s="2"/>
-      <c r="C459" s="2"/>
-    </row>
-    <row r="460" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B460" s="2"/>
-      <c r="C460" s="2"/>
-    </row>
-    <row r="461" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B461" s="2"/>
-      <c r="C461" s="2"/>
-    </row>
-    <row r="462" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B462" s="2"/>
-      <c r="C462" s="2"/>
-    </row>
-    <row r="463" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B463" s="2"/>
-      <c r="C463" s="2"/>
-    </row>
-    <row r="464" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B464" s="2"/>
-      <c r="C464" s="2"/>
-    </row>
-    <row r="465" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B465" s="2"/>
-      <c r="C465" s="2"/>
-    </row>
-    <row r="466" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B466" s="2"/>
-      <c r="C466" s="2"/>
-    </row>
-    <row r="467" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B467" s="2"/>
-      <c r="C467" s="2"/>
-    </row>
-    <row r="468" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B468" s="2"/>
-      <c r="C468" s="2"/>
-    </row>
-    <row r="469" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B469" s="2"/>
-      <c r="C469" s="2"/>
-    </row>
-    <row r="470" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B470" s="2"/>
-      <c r="C470" s="2"/>
-    </row>
-    <row r="471" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B471" s="2"/>
-      <c r="C471" s="2"/>
-    </row>
-    <row r="472" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B472" s="2"/>
-      <c r="C472" s="2"/>
-    </row>
-    <row r="473" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B473" s="2"/>
-      <c r="C473" s="2"/>
-    </row>
-    <row r="474" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B474" s="2"/>
-      <c r="C474" s="2"/>
-    </row>
-    <row r="475" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B475" s="2"/>
-      <c r="C475" s="2"/>
-    </row>
-    <row r="476" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B476" s="2"/>
-      <c r="C476" s="2"/>
-    </row>
-    <row r="477" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B477" s="2"/>
-      <c r="C477" s="2"/>
-    </row>
-    <row r="478" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B478" s="2"/>
-      <c r="C478" s="2"/>
-    </row>
-    <row r="479" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B479" s="2"/>
-      <c r="C479" s="2"/>
-    </row>
-    <row r="480" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B480" s="2"/>
-      <c r="C480" s="2"/>
-    </row>
-    <row r="481" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B481" s="2"/>
-      <c r="C481" s="2"/>
-    </row>
-    <row r="482" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B482" s="2"/>
-      <c r="C482" s="2"/>
-    </row>
-    <row r="483" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B483" s="2"/>
-      <c r="C483" s="2"/>
-    </row>
-    <row r="484" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B484" s="2"/>
-      <c r="C484" s="2"/>
-    </row>
-    <row r="485" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B485" s="2"/>
-      <c r="C485" s="2"/>
-    </row>
-    <row r="486" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B486" s="2"/>
-      <c r="C486" s="2"/>
-    </row>
-    <row r="487" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B487" s="2"/>
-      <c r="C487" s="2"/>
-    </row>
-    <row r="488" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B488" s="2"/>
-      <c r="C488" s="2"/>
-    </row>
-    <row r="489" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B489" s="2"/>
-      <c r="C489" s="2"/>
-    </row>
-    <row r="490" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B490" s="2"/>
-      <c r="C490" s="2"/>
-    </row>
-    <row r="491" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B491" s="2"/>
-      <c r="C491" s="2"/>
-    </row>
-    <row r="492" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B492" s="2"/>
-      <c r="C492" s="2"/>
-    </row>
-    <row r="493" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B493" s="2"/>
-      <c r="C493" s="2"/>
-    </row>
-    <row r="494" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B494" s="2"/>
-      <c r="C494" s="2"/>
-    </row>
-    <row r="495" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B495" s="2"/>
-      <c r="C495" s="2"/>
-    </row>
-    <row r="496" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B496" s="2"/>
-      <c r="C496" s="2"/>
-    </row>
-    <row r="497" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B497" s="2"/>
-      <c r="C497" s="2"/>
-    </row>
-    <row r="498" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B498" s="2"/>
-      <c r="C498" s="2"/>
-    </row>
-    <row r="499" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B499" s="2"/>
-      <c r="C499" s="2"/>
-    </row>
-    <row r="500" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B500" s="2"/>
-      <c r="C500" s="2"/>
-    </row>
-    <row r="501" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B501" s="2"/>
-      <c r="C501" s="2"/>
-    </row>
-    <row r="502" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B502" s="2"/>
-      <c r="C502" s="2"/>
-    </row>
-    <row r="503" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B503" s="2"/>
-      <c r="C503" s="2"/>
-    </row>
-    <row r="504" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B504" s="2"/>
-      <c r="C504" s="2"/>
-    </row>
-    <row r="505" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B505" s="2"/>
-      <c r="C505" s="2"/>
-    </row>
-    <row r="506" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B506" s="2"/>
-      <c r="C506" s="2"/>
-    </row>
-    <row r="507" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B507" s="2"/>
-      <c r="C507" s="2"/>
-    </row>
-    <row r="508" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B508" s="2"/>
-      <c r="C508" s="2"/>
-    </row>
-    <row r="509" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B509" s="2"/>
-      <c r="C509" s="2"/>
-    </row>
-    <row r="510" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B510" s="2"/>
-      <c r="C510" s="2"/>
-    </row>
-    <row r="511" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B511" s="2"/>
-      <c r="C511" s="2"/>
-    </row>
-    <row r="512" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B512" s="2"/>
-      <c r="C512" s="2"/>
-    </row>
-    <row r="513" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B513" s="2"/>
-      <c r="C513" s="2"/>
-    </row>
-    <row r="514" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B514" s="2"/>
-      <c r="C514" s="2"/>
-    </row>
-    <row r="515" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B515" s="2"/>
-      <c r="C515" s="2"/>
-    </row>
-    <row r="516" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B516" s="2"/>
-      <c r="C516" s="2"/>
-    </row>
-    <row r="517" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B517" s="2"/>
-      <c r="C517" s="2"/>
-    </row>
-    <row r="518" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B518" s="2"/>
-      <c r="C518" s="2"/>
-    </row>
-    <row r="519" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B519" s="2"/>
-      <c r="C519" s="2"/>
-    </row>
-    <row r="520" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B520" s="2"/>
-      <c r="C520" s="2"/>
-    </row>
-    <row r="521" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B521" s="2"/>
-      <c r="C521" s="2"/>
-    </row>
-    <row r="522" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B522" s="2"/>
-      <c r="C522" s="2"/>
-    </row>
-    <row r="523" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B523" s="2"/>
-      <c r="C523" s="2"/>
-    </row>
-    <row r="524" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B524" s="2"/>
-      <c r="C524" s="2"/>
-    </row>
-    <row r="525" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B525" s="2"/>
-      <c r="C525" s="2"/>
-    </row>
-    <row r="526" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B526" s="2"/>
-      <c r="C526" s="2"/>
-    </row>
-    <row r="527" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B527" s="2"/>
-      <c r="C527" s="2"/>
-    </row>
-    <row r="528" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B528" s="2"/>
-      <c r="C528" s="2"/>
-    </row>
-    <row r="529" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B529" s="2"/>
-      <c r="C529" s="2"/>
-    </row>
-    <row r="530" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B530" s="2"/>
-      <c r="C530" s="2"/>
-    </row>
-    <row r="531" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B531" s="2"/>
-      <c r="C531" s="2"/>
-    </row>
-    <row r="532" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B532" s="2"/>
-      <c r="C532" s="2"/>
-    </row>
-    <row r="533" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B533" s="2"/>
-      <c r="C533" s="2"/>
-    </row>
-    <row r="534" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B534" s="2"/>
-      <c r="C534" s="2"/>
-    </row>
-    <row r="535" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B535" s="2"/>
-      <c r="C535" s="2"/>
-    </row>
-    <row r="536" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B536" s="2"/>
-      <c r="C536" s="2"/>
-    </row>
-    <row r="537" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B537" s="2"/>
-      <c r="C537" s="2"/>
-    </row>
-    <row r="538" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B538" s="2"/>
-      <c r="C538" s="2"/>
-    </row>
-    <row r="539" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B539" s="2"/>
-      <c r="C539" s="2"/>
-    </row>
-    <row r="540" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B540" s="2"/>
-      <c r="C540" s="2"/>
-    </row>
-    <row r="541" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B541" s="2"/>
-      <c r="C541" s="2"/>
-    </row>
-    <row r="542" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B542" s="2"/>
-      <c r="C542" s="2"/>
-    </row>
-    <row r="543" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B543" s="2"/>
-      <c r="C543" s="2"/>
-    </row>
-    <row r="544" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B544" s="2"/>
-      <c r="C544" s="2"/>
-    </row>
-    <row r="545" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B545" s="2"/>
-      <c r="C545" s="2"/>
-    </row>
-    <row r="546" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B546" s="2"/>
-      <c r="C546" s="2"/>
-    </row>
-    <row r="547" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B547" s="2"/>
-      <c r="C547" s="2"/>
-    </row>
-    <row r="548" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B548" s="2"/>
-      <c r="C548" s="2"/>
-    </row>
-    <row r="549" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B549" s="2"/>
-      <c r="C549" s="2"/>
-    </row>
-    <row r="550" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B550" s="2"/>
-      <c r="C550" s="2"/>
-    </row>
-    <row r="551" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B551" s="2"/>
-      <c r="C551" s="2"/>
-    </row>
-    <row r="552" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B552" s="2"/>
-      <c r="C552" s="2"/>
-    </row>
-    <row r="553" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B553" s="2"/>
-      <c r="C553" s="2"/>
-    </row>
-    <row r="554" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B554" s="2"/>
-      <c r="C554" s="2"/>
-    </row>
-    <row r="555" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B555" s="2"/>
-      <c r="C555" s="2"/>
-    </row>
-    <row r="556" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B556" s="2"/>
-      <c r="C556" s="2"/>
-    </row>
-    <row r="557" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B557" s="2"/>
-      <c r="C557" s="2"/>
-    </row>
-    <row r="558" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B558" s="2"/>
-      <c r="C558" s="2"/>
-    </row>
-    <row r="559" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B559" s="2"/>
-      <c r="C559" s="2"/>
-    </row>
-    <row r="560" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B560" s="2"/>
-      <c r="C560" s="2"/>
-    </row>
-    <row r="561" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B561" s="2"/>
-      <c r="C561" s="2"/>
-    </row>
-    <row r="562" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B562" s="2"/>
-      <c r="C562" s="2"/>
-    </row>
-    <row r="563" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B563" s="2"/>
-      <c r="C563" s="2"/>
-    </row>
-    <row r="564" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B564" s="2"/>
-      <c r="C564" s="2"/>
-    </row>
-    <row r="565" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B565" s="2"/>
-      <c r="C565" s="2"/>
-    </row>
-    <row r="566" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B566" s="2"/>
-      <c r="C566" s="2"/>
-    </row>
-    <row r="567" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B567" s="2"/>
-      <c r="C567" s="2"/>
-    </row>
-    <row r="568" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B568" s="2"/>
-      <c r="C568" s="2"/>
-    </row>
-    <row r="569" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B569" s="2"/>
-      <c r="C569" s="2"/>
-    </row>
-    <row r="570" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B570" s="2"/>
-      <c r="C570" s="2"/>
-    </row>
-    <row r="571" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B571" s="2"/>
-      <c r="C571" s="2"/>
-    </row>
-    <row r="572" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B572" s="2"/>
-      <c r="C572" s="2"/>
-    </row>
-    <row r="573" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B573" s="2"/>
-      <c r="C573" s="2"/>
-    </row>
-    <row r="574" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B574" s="2"/>
-      <c r="C574" s="2"/>
-    </row>
-    <row r="575" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B575" s="2"/>
-      <c r="C575" s="2"/>
-    </row>
-    <row r="576" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B576" s="2"/>
-      <c r="C576" s="2"/>
-    </row>
-    <row r="577" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B577" s="2"/>
-      <c r="C577" s="2"/>
-    </row>
-    <row r="578" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B578" s="2"/>
-      <c r="C578" s="2"/>
-    </row>
-    <row r="579" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B579" s="2"/>
-      <c r="C579" s="2"/>
-    </row>
-    <row r="580" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B580" s="2"/>
-      <c r="C580" s="2"/>
-    </row>
-    <row r="581" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B581" s="2"/>
-      <c r="C581" s="2"/>
-    </row>
-    <row r="582" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B582" s="2"/>
-      <c r="C582" s="2"/>
-    </row>
-    <row r="583" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B583" s="2"/>
-      <c r="C583" s="2"/>
-    </row>
-    <row r="584" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B584" s="2"/>
-      <c r="C584" s="2"/>
-    </row>
-    <row r="585" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B585" s="2"/>
-      <c r="C585" s="2"/>
-    </row>
-    <row r="586" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B586" s="2"/>
-      <c r="C586" s="2"/>
-    </row>
-    <row r="587" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B587" s="2"/>
-      <c r="C587" s="2"/>
-    </row>
-    <row r="588" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B588" s="2"/>
-      <c r="C588" s="2"/>
-    </row>
-    <row r="589" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B589" s="2"/>
-      <c r="C589" s="2"/>
-    </row>
-    <row r="590" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B590" s="2"/>
-      <c r="C590" s="2"/>
-    </row>
-    <row r="591" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B591" s="2"/>
-      <c r="C591" s="2"/>
-    </row>
-    <row r="592" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B592" s="2"/>
-      <c r="C592" s="2"/>
-    </row>
-    <row r="593" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B593" s="2"/>
-      <c r="C593" s="2"/>
-    </row>
-    <row r="594" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B594" s="2"/>
-      <c r="C594" s="2"/>
-    </row>
-    <row r="595" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B595" s="2"/>
-      <c r="C595" s="2"/>
-    </row>
-    <row r="596" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B596" s="2"/>
-      <c r="C596" s="2"/>
-    </row>
-    <row r="597" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B597" s="2"/>
-      <c r="C597" s="2"/>
-    </row>
-    <row r="598" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B598" s="2"/>
-      <c r="C598" s="2"/>
-    </row>
-    <row r="599" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B599" s="2"/>
-      <c r="C599" s="2"/>
-    </row>
-    <row r="600" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B600" s="2"/>
-      <c r="C600" s="2"/>
-    </row>
-    <row r="601" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B601" s="2"/>
-      <c r="C601" s="2"/>
-    </row>
-    <row r="602" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B602" s="2"/>
-      <c r="C602" s="2"/>
-    </row>
-    <row r="603" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B603" s="2"/>
-      <c r="C603" s="2"/>
-    </row>
-    <row r="604" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B604" s="2"/>
-      <c r="C604" s="2"/>
-    </row>
-    <row r="605" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B605" s="2"/>
-      <c r="C605" s="2"/>
-    </row>
-    <row r="606" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B606" s="2"/>
-      <c r="C606" s="2"/>
-    </row>
-    <row r="607" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B607" s="2"/>
-      <c r="C607" s="2"/>
-    </row>
-    <row r="608" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B608" s="2"/>
-      <c r="C608" s="2"/>
-    </row>
-    <row r="609" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B609" s="2"/>
-      <c r="C609" s="2"/>
-    </row>
-    <row r="610" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B610" s="2"/>
-      <c r="C610" s="2"/>
-    </row>
-    <row r="611" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B611" s="2"/>
-      <c r="C611" s="2"/>
-    </row>
-    <row r="612" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B612" s="2"/>
-      <c r="C612" s="2"/>
-    </row>
-    <row r="613" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B613" s="2"/>
-      <c r="C613" s="2"/>
-    </row>
-    <row r="614" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B614" s="2"/>
-      <c r="C614" s="2"/>
-    </row>
-    <row r="615" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B615" s="2"/>
-      <c r="C615" s="2"/>
-    </row>
-    <row r="616" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B616" s="2"/>
-      <c r="C616" s="2"/>
-    </row>
-    <row r="617" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B617" s="2"/>
-      <c r="C617" s="2"/>
-    </row>
-    <row r="618" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B618" s="2"/>
-      <c r="C618" s="2"/>
-    </row>
-    <row r="619" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B619" s="2"/>
-      <c r="C619" s="2"/>
-    </row>
-    <row r="620" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B620" s="2"/>
-      <c r="C620" s="2"/>
-    </row>
-    <row r="621" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B621" s="2"/>
-      <c r="C621" s="2"/>
-    </row>
-    <row r="622" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B622" s="2"/>
-      <c r="C622" s="2"/>
-    </row>
-    <row r="623" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B623" s="2"/>
-      <c r="C623" s="2"/>
-    </row>
-    <row r="624" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B624" s="2"/>
-      <c r="C624" s="2"/>
-    </row>
-    <row r="625" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B625" s="2"/>
-      <c r="C625" s="2"/>
-    </row>
-    <row r="626" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B626" s="2"/>
-      <c r="C626" s="2"/>
-    </row>
-    <row r="627" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B627" s="2"/>
-      <c r="C627" s="2"/>
-    </row>
-    <row r="628" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B628" s="2"/>
-      <c r="C628" s="2"/>
-    </row>
-    <row r="629" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B629" s="2"/>
-      <c r="C629" s="2"/>
-    </row>
-    <row r="630" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B630" s="2"/>
-      <c r="C630" s="2"/>
-    </row>
-    <row r="631" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B631" s="2"/>
-      <c r="C631" s="2"/>
-    </row>
-    <row r="632" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B632" s="2"/>
-      <c r="C632" s="2"/>
-    </row>
-    <row r="633" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B633" s="2"/>
-      <c r="C633" s="2"/>
-    </row>
-    <row r="634" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B634" s="2"/>
-      <c r="C634" s="2"/>
-    </row>
-    <row r="635" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B635" s="2"/>
-      <c r="C635" s="2"/>
-    </row>
-    <row r="636" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B636" s="2"/>
-      <c r="C636" s="2"/>
-    </row>
-    <row r="637" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B637" s="2"/>
-      <c r="C637" s="2"/>
-    </row>
-    <row r="638" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B638" s="2"/>
-      <c r="C638" s="2"/>
-    </row>
-    <row r="639" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B639" s="2"/>
-      <c r="C639" s="2"/>
-    </row>
-    <row r="640" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B640" s="2"/>
-      <c r="C640" s="2"/>
-    </row>
-    <row r="641" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B641" s="2"/>
-      <c r="C641" s="2"/>
-    </row>
-    <row r="642" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B642" s="2"/>
-      <c r="C642" s="2"/>
-    </row>
-    <row r="643" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B643" s="2"/>
-      <c r="C643" s="2"/>
-    </row>
-    <row r="644" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B644" s="2"/>
-      <c r="C644" s="2"/>
-    </row>
-    <row r="645" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B645" s="2"/>
-      <c r="C645" s="2"/>
-    </row>
-    <row r="646" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B646" s="2"/>
-      <c r="C646" s="2"/>
-    </row>
-    <row r="647" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B647" s="2"/>
-      <c r="C647" s="2"/>
-    </row>
-    <row r="648" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B648" s="2"/>
-      <c r="C648" s="2"/>
-    </row>
-    <row r="649" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B649" s="2"/>
-      <c r="C649" s="2"/>
-    </row>
-    <row r="650" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B650" s="2"/>
-      <c r="C650" s="2"/>
-    </row>
-    <row r="651" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B651" s="2"/>
-      <c r="C651" s="2"/>
-    </row>
-    <row r="652" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B652" s="2"/>
-      <c r="C652" s="2"/>
-    </row>
-    <row r="653" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B653" s="2"/>
-      <c r="C653" s="2"/>
-    </row>
-    <row r="654" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B654" s="2"/>
-      <c r="C654" s="2"/>
-    </row>
-    <row r="655" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B655" s="2"/>
-      <c r="C655" s="2"/>
-    </row>
-    <row r="656" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B656" s="2"/>
-      <c r="C656" s="2"/>
-    </row>
-    <row r="657" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B657" s="2"/>
-      <c r="C657" s="2"/>
-    </row>
-    <row r="658" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B658" s="2"/>
-      <c r="C658" s="2"/>
-    </row>
-    <row r="659" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B659" s="2"/>
-      <c r="C659" s="2"/>
-    </row>
-    <row r="660" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B660" s="2"/>
-      <c r="C660" s="2"/>
-    </row>
-    <row r="661" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B661" s="2"/>
-      <c r="C661" s="2"/>
-    </row>
-    <row r="662" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B662" s="2"/>
-      <c r="C662" s="2"/>
-    </row>
-    <row r="663" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B663" s="2"/>
-      <c r="C663" s="2"/>
-    </row>
-    <row r="664" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B664" s="2"/>
-      <c r="C664" s="2"/>
-    </row>
-    <row r="665" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B665" s="2"/>
-      <c r="C665" s="2"/>
-    </row>
-    <row r="666" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B666" s="2"/>
-      <c r="C666" s="2"/>
-    </row>
-    <row r="667" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B667" s="2"/>
-      <c r="C667" s="2"/>
-    </row>
-    <row r="668" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B668" s="2"/>
-      <c r="C668" s="2"/>
-    </row>
-    <row r="669" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B669" s="2"/>
-      <c r="C669" s="2"/>
-    </row>
-    <row r="670" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B670" s="2"/>
-      <c r="C670" s="2"/>
-    </row>
-    <row r="671" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B671" s="2"/>
-      <c r="C671" s="2"/>
-    </row>
-    <row r="672" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B672" s="2"/>
-      <c r="C672" s="2"/>
-    </row>
-    <row r="673" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B673" s="2"/>
-      <c r="C673" s="2"/>
-    </row>
-    <row r="674" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B674" s="2"/>
-      <c r="C674" s="2"/>
-    </row>
-    <row r="675" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B675" s="2"/>
-      <c r="C675" s="2"/>
-    </row>
-    <row r="676" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B676" s="2"/>
-      <c r="C676" s="2"/>
-    </row>
-    <row r="677" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B677" s="2"/>
-      <c r="C677" s="2"/>
-    </row>
-    <row r="678" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B678" s="2"/>
-      <c r="C678" s="2"/>
-    </row>
-    <row r="679" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B679" s="2"/>
-      <c r="C679" s="2"/>
-    </row>
-    <row r="680" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B680" s="2"/>
-      <c r="C680" s="2"/>
-    </row>
-    <row r="681" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B681" s="2"/>
-      <c r="C681" s="2"/>
-    </row>
-    <row r="682" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B682" s="2"/>
-      <c r="C682" s="2"/>
-    </row>
-    <row r="683" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B683" s="2"/>
-      <c r="C683" s="2"/>
-    </row>
-    <row r="684" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B684" s="2"/>
-      <c r="C684" s="2"/>
-    </row>
-    <row r="685" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B685" s="2"/>
-      <c r="C685" s="2"/>
-    </row>
-    <row r="686" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B686" s="2"/>
-      <c r="C686" s="2"/>
-    </row>
-    <row r="687" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B687" s="2"/>
-      <c r="C687" s="2"/>
-    </row>
-    <row r="688" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B688" s="2"/>
-      <c r="C688" s="2"/>
-    </row>
-    <row r="689" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B689" s="2"/>
-      <c r="C689" s="2"/>
-    </row>
-    <row r="690" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B690" s="2"/>
-      <c r="C690" s="2"/>
-    </row>
-    <row r="691" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B691" s="2"/>
-      <c r="C691" s="2"/>
-    </row>
-    <row r="692" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B692" s="2"/>
-      <c r="C692" s="2"/>
-    </row>
-    <row r="693" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B693" s="2"/>
-      <c r="C693" s="2"/>
-    </row>
-    <row r="694" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B694" s="2"/>
-      <c r="C694" s="2"/>
-    </row>
-    <row r="695" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B695" s="2"/>
-      <c r="C695" s="2"/>
-    </row>
-    <row r="696" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B696" s="2"/>
-      <c r="C696" s="2"/>
-    </row>
-    <row r="697" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B697" s="2"/>
-      <c r="C697" s="2"/>
-    </row>
-    <row r="698" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B698" s="2"/>
-      <c r="C698" s="2"/>
-    </row>
-    <row r="699" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B699" s="2"/>
-      <c r="C699" s="2"/>
-    </row>
-    <row r="700" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B700" s="2"/>
-      <c r="C700" s="2"/>
-    </row>
-    <row r="701" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B701" s="2"/>
-      <c r="C701" s="2"/>
-    </row>
-    <row r="702" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B702" s="2"/>
-      <c r="C702" s="2"/>
-    </row>
-    <row r="703" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B703" s="2"/>
-      <c r="C703" s="2"/>
-    </row>
-    <row r="704" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B704" s="2"/>
-      <c r="C704" s="2"/>
-    </row>
-    <row r="705" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B705" s="2"/>
-      <c r="C705" s="2"/>
-    </row>
-    <row r="706" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B706" s="2"/>
-      <c r="C706" s="2"/>
-    </row>
-    <row r="707" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B707" s="2"/>
-      <c r="C707" s="2"/>
-    </row>
-    <row r="708" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B708" s="2"/>
-      <c r="C708" s="2"/>
-    </row>
-    <row r="709" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B709" s="2"/>
-      <c r="C709" s="2"/>
-    </row>
-    <row r="710" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B710" s="2"/>
-      <c r="C710" s="2"/>
-    </row>
-    <row r="711" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B711" s="2"/>
-      <c r="C711" s="2"/>
-    </row>
-    <row r="712" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B712" s="2"/>
-      <c r="C712" s="2"/>
-    </row>
-    <row r="713" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B713" s="2"/>
-      <c r="C713" s="2"/>
-    </row>
-    <row r="714" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B714" s="2"/>
-      <c r="C714" s="2"/>
-    </row>
-    <row r="715" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B715" s="2"/>
-      <c r="C715" s="2"/>
-    </row>
-    <row r="716" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B716" s="2"/>
-      <c r="C716" s="2"/>
-    </row>
-    <row r="717" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B717" s="2"/>
-      <c r="C717" s="2"/>
-    </row>
-    <row r="718" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B718" s="2"/>
-      <c r="C718" s="2"/>
-    </row>
-    <row r="719" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B719" s="2"/>
-      <c r="C719" s="2"/>
-    </row>
-    <row r="720" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B720" s="2"/>
-      <c r="C720" s="2"/>
-    </row>
-    <row r="721" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B721" s="2"/>
-      <c r="C721" s="2"/>
-    </row>
-    <row r="722" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B722" s="2"/>
-      <c r="C722" s="2"/>
-    </row>
-    <row r="723" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B723" s="2"/>
-      <c r="C723" s="2"/>
-    </row>
-    <row r="724" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B724" s="2"/>
-      <c r="C724" s="2"/>
-    </row>
-    <row r="725" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B725" s="2"/>
-      <c r="C725" s="2"/>
-    </row>
-    <row r="726" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B726" s="2"/>
-      <c r="C726" s="2"/>
-    </row>
-    <row r="727" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B727" s="2"/>
-      <c r="C727" s="2"/>
-    </row>
-    <row r="728" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B728" s="2"/>
-      <c r="C728" s="2"/>
-    </row>
-    <row r="729" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B729" s="2"/>
-      <c r="C729" s="2"/>
-    </row>
-    <row r="730" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B730" s="2"/>
-      <c r="C730" s="2"/>
-    </row>
-    <row r="731" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B731" s="2"/>
-      <c r="C731" s="2"/>
-    </row>
-    <row r="732" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B732" s="2"/>
-      <c r="C732" s="2"/>
-    </row>
-    <row r="733" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B733" s="2"/>
-      <c r="C733" s="2"/>
-    </row>
-    <row r="734" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B734" s="2"/>
-      <c r="C734" s="2"/>
-    </row>
-    <row r="735" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B735" s="2"/>
-      <c r="C735" s="2"/>
-    </row>
-    <row r="736" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B736" s="2"/>
-      <c r="C736" s="2"/>
-    </row>
-    <row r="737" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B737" s="2"/>
-      <c r="C737" s="2"/>
-    </row>
-    <row r="738" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B738" s="2"/>
-      <c r="C738" s="2"/>
-    </row>
-    <row r="739" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B739" s="2"/>
-      <c r="C739" s="2"/>
-    </row>
-    <row r="740" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B740" s="2"/>
-      <c r="C740" s="2"/>
-    </row>
-    <row r="741" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B741" s="2"/>
-      <c r="C741" s="2"/>
-    </row>
-    <row r="742" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B742" s="2"/>
-      <c r="C742" s="2"/>
-    </row>
-    <row r="743" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B743" s="2"/>
-      <c r="C743" s="2"/>
-    </row>
-    <row r="744" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B744" s="2"/>
-      <c r="C744" s="2"/>
-    </row>
-    <row r="745" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B745" s="2"/>
-      <c r="C745" s="2"/>
-    </row>
-    <row r="746" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B746" s="2"/>
-      <c r="C746" s="2"/>
-    </row>
-    <row r="747" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B747" s="2"/>
-      <c r="C747" s="2"/>
-    </row>
-    <row r="748" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B748" s="2"/>
-      <c r="C748" s="2"/>
-    </row>
-    <row r="749" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B749" s="2"/>
-      <c r="C749" s="2"/>
-    </row>
-    <row r="750" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B750" s="2"/>
-      <c r="C750" s="2"/>
-    </row>
-    <row r="751" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B751" s="2"/>
-      <c r="C751" s="2"/>
-    </row>
-    <row r="752" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B752" s="2"/>
-      <c r="C752" s="2"/>
-    </row>
-    <row r="753" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B753" s="2"/>
-      <c r="C753" s="2"/>
-    </row>
-    <row r="754" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B754" s="2"/>
-      <c r="C754" s="2"/>
-    </row>
-    <row r="755" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B755" s="2"/>
-      <c r="C755" s="2"/>
-    </row>
-    <row r="756" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B756" s="2"/>
-      <c r="C756" s="2"/>
-    </row>
-    <row r="757" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B757" s="2"/>
-      <c r="C757" s="2"/>
-    </row>
-    <row r="758" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B758" s="2"/>
-      <c r="C758" s="2"/>
-    </row>
-    <row r="759" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B759" s="2"/>
-      <c r="C759" s="2"/>
-    </row>
-    <row r="760" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B760" s="2"/>
-      <c r="C760" s="2"/>
-    </row>
-    <row r="761" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B761" s="2"/>
-      <c r="C761" s="2"/>
-    </row>
-    <row r="762" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B762" s="2"/>
-      <c r="C762" s="2"/>
-    </row>
-    <row r="763" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B763" s="2"/>
-      <c r="C763" s="2"/>
-    </row>
-    <row r="764" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B764" s="2"/>
-      <c r="C764" s="2"/>
-    </row>
-    <row r="765" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B765" s="2"/>
-      <c r="C765" s="2"/>
-    </row>
-    <row r="766" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B766" s="2"/>
-      <c r="C766" s="2"/>
-    </row>
-    <row r="767" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B767" s="2"/>
-      <c r="C767" s="2"/>
-    </row>
-    <row r="768" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B768" s="2"/>
-      <c r="C768" s="2"/>
-    </row>
-    <row r="769" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B769" s="2"/>
-      <c r="C769" s="2"/>
-    </row>
-    <row r="770" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B770" s="2"/>
-      <c r="C770" s="2"/>
-    </row>
-    <row r="771" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B771" s="2"/>
-      <c r="C771" s="2"/>
-    </row>
-    <row r="772" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B772" s="2"/>
-      <c r="C772" s="2"/>
-    </row>
-    <row r="773" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B773" s="2"/>
-      <c r="C773" s="2"/>
-    </row>
-    <row r="774" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B774" s="2"/>
-      <c r="C774" s="2"/>
-    </row>
-    <row r="775" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B775" s="2"/>
-      <c r="C775" s="2"/>
-    </row>
-    <row r="776" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B776" s="2"/>
-      <c r="C776" s="2"/>
-    </row>
-    <row r="777" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B777" s="2"/>
-      <c r="C777" s="2"/>
-    </row>
-    <row r="778" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B778" s="2"/>
-      <c r="C778" s="2"/>
-    </row>
-    <row r="779" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B779" s="2"/>
-      <c r="C779" s="2"/>
-    </row>
-    <row r="780" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B780" s="2"/>
-      <c r="C780" s="2"/>
-    </row>
-    <row r="781" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B781" s="2"/>
-      <c r="C781" s="2"/>
-    </row>
-    <row r="782" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B782" s="2"/>
-      <c r="C782" s="2"/>
-    </row>
-    <row r="783" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B783" s="2"/>
-      <c r="C783" s="2"/>
-    </row>
-    <row r="784" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B784" s="2"/>
-      <c r="C784" s="2"/>
-    </row>
-    <row r="785" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B785" s="2"/>
-      <c r="C785" s="2"/>
-    </row>
-    <row r="786" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B786" s="2"/>
-      <c r="C786" s="2"/>
-    </row>
-    <row r="787" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B787" s="2"/>
-      <c r="C787" s="2"/>
-    </row>
-    <row r="788" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B788" s="2"/>
-      <c r="C788" s="2"/>
-    </row>
-    <row r="789" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B789" s="2"/>
-      <c r="C789" s="2"/>
-    </row>
-    <row r="790" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B790" s="2"/>
-      <c r="C790" s="2"/>
-    </row>
-    <row r="791" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B791" s="2"/>
-      <c r="C791" s="2"/>
-    </row>
-    <row r="792" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B792" s="2"/>
-      <c r="C792" s="2"/>
-    </row>
-    <row r="793" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B793" s="2"/>
-      <c r="C793" s="2"/>
-    </row>
-    <row r="794" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B794" s="2"/>
-      <c r="C794" s="2"/>
-    </row>
-    <row r="795" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B795" s="2"/>
-      <c r="C795" s="2"/>
-    </row>
-    <row r="796" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B796" s="2"/>
-      <c r="C796" s="2"/>
-    </row>
-    <row r="797" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B797" s="2"/>
-      <c r="C797" s="2"/>
-    </row>
-    <row r="798" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B798" s="2"/>
-      <c r="C798" s="2"/>
-    </row>
-    <row r="799" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B799" s="2"/>
-      <c r="C799" s="2"/>
-    </row>
-    <row r="800" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B800" s="2"/>
-      <c r="C800" s="2"/>
-    </row>
-    <row r="801" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B801" s="2"/>
-      <c r="C801" s="2"/>
-    </row>
-    <row r="802" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B802" s="2"/>
-      <c r="C802" s="2"/>
-    </row>
-    <row r="803" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B803" s="2"/>
-      <c r="C803" s="2"/>
-    </row>
-    <row r="804" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B804" s="2"/>
-      <c r="C804" s="2"/>
-    </row>
-    <row r="805" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B805" s="2"/>
-      <c r="C805" s="2"/>
-    </row>
-    <row r="806" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B806" s="2"/>
-      <c r="C806" s="2"/>
-    </row>
-    <row r="807" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B807" s="2"/>
-      <c r="C807" s="2"/>
-    </row>
-    <row r="808" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B808" s="2"/>
-      <c r="C808" s="2"/>
-    </row>
-    <row r="809" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B809" s="2"/>
-      <c r="C809" s="2"/>
-    </row>
-    <row r="810" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B810" s="2"/>
-      <c r="C810" s="2"/>
-    </row>
-    <row r="811" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B811" s="2"/>
-      <c r="C811" s="2"/>
-    </row>
-    <row r="812" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B812" s="2"/>
-      <c r="C812" s="2"/>
-    </row>
-    <row r="813" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B813" s="2"/>
-      <c r="C813" s="2"/>
-    </row>
-    <row r="814" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B814" s="2"/>
-      <c r="C814" s="2"/>
-    </row>
-    <row r="815" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B815" s="2"/>
-      <c r="C815" s="2"/>
-    </row>
-    <row r="816" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B816" s="2"/>
-      <c r="C816" s="2"/>
-    </row>
-    <row r="817" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B817" s="2"/>
-      <c r="C817" s="2"/>
-    </row>
-    <row r="818" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B818" s="2"/>
-      <c r="C818" s="2"/>
-    </row>
-    <row r="819" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B819" s="2"/>
-      <c r="C819" s="2"/>
-    </row>
-    <row r="820" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B820" s="2"/>
-      <c r="C820" s="2"/>
-    </row>
-    <row r="821" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B821" s="2"/>
-      <c r="C821" s="2"/>
-    </row>
-    <row r="822" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B822" s="2"/>
-      <c r="C822" s="2"/>
-    </row>
-    <row r="823" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B823" s="2"/>
-      <c r="C823" s="2"/>
-    </row>
-    <row r="824" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B824" s="2"/>
-      <c r="C824" s="2"/>
-    </row>
-    <row r="825" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B825" s="2"/>
-      <c r="C825" s="2"/>
-    </row>
-    <row r="826" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B826" s="2"/>
-      <c r="C826" s="2"/>
-    </row>
-    <row r="827" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B827" s="2"/>
-      <c r="C827" s="2"/>
-    </row>
-    <row r="828" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B828" s="2"/>
-      <c r="C828" s="2"/>
-    </row>
-    <row r="829" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B829" s="2"/>
-      <c r="C829" s="2"/>
-    </row>
-    <row r="830" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B830" s="2"/>
-      <c r="C830" s="2"/>
-    </row>
-    <row r="831" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B831" s="2"/>
-      <c r="C831" s="2"/>
-    </row>
-    <row r="832" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B832" s="2"/>
-      <c r="C832" s="2"/>
-    </row>
-    <row r="833" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B833" s="2"/>
-      <c r="C833" s="2"/>
-    </row>
-    <row r="834" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B834" s="2"/>
-      <c r="C834" s="2"/>
-    </row>
-    <row r="835" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B835" s="2"/>
-      <c r="C835" s="2"/>
-    </row>
-    <row r="836" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B836" s="2"/>
-      <c r="C836" s="2"/>
-    </row>
-    <row r="837" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B837" s="2"/>
-      <c r="C837" s="2"/>
-    </row>
-    <row r="838" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B838" s="2"/>
-      <c r="C838" s="2"/>
-    </row>
-    <row r="839" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B839" s="2"/>
-      <c r="C839" s="2"/>
-    </row>
-    <row r="840" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B840" s="2"/>
-      <c r="C840" s="2"/>
-    </row>
-    <row r="841" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B841" s="2"/>
-      <c r="C841" s="2"/>
-    </row>
-    <row r="842" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B842" s="2"/>
-      <c r="C842" s="2"/>
-    </row>
-    <row r="843" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B843" s="2"/>
-      <c r="C843" s="2"/>
-    </row>
-    <row r="844" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B844" s="2"/>
-      <c r="C844" s="2"/>
-    </row>
-    <row r="845" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B845" s="2"/>
-      <c r="C845" s="2"/>
-    </row>
-    <row r="846" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B846" s="2"/>
-      <c r="C846" s="2"/>
-    </row>
-    <row r="847" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B847" s="2"/>
-      <c r="C847" s="2"/>
-    </row>
-    <row r="848" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B848" s="2"/>
-      <c r="C848" s="2"/>
-    </row>
-    <row r="849" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B849" s="2"/>
-      <c r="C849" s="2"/>
-    </row>
-    <row r="850" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B850" s="2"/>
-      <c r="C850" s="2"/>
-    </row>
-    <row r="851" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B851" s="2"/>
-      <c r="C851" s="2"/>
-    </row>
-    <row r="852" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B852" s="2"/>
-      <c r="C852" s="2"/>
-    </row>
-    <row r="853" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B853" s="2"/>
-      <c r="C853" s="2"/>
-    </row>
-    <row r="854" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B854" s="2"/>
-      <c r="C854" s="2"/>
-    </row>
-    <row r="855" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B855" s="2"/>
-      <c r="C855" s="2"/>
-    </row>
-    <row r="856" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B856" s="2"/>
-      <c r="C856" s="2"/>
-    </row>
-    <row r="857" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B857" s="2"/>
-      <c r="C857" s="2"/>
-    </row>
-    <row r="858" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B858" s="2"/>
-      <c r="C858" s="2"/>
-    </row>
-    <row r="859" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B859" s="2"/>
-      <c r="C859" s="2"/>
-    </row>
-    <row r="860" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B860" s="2"/>
-      <c r="C860" s="2"/>
-    </row>
-    <row r="861" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B861" s="2"/>
-      <c r="C861" s="2"/>
-    </row>
-    <row r="862" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B862" s="2"/>
-      <c r="C862" s="2"/>
-    </row>
-    <row r="863" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B863" s="2"/>
-      <c r="C863" s="2"/>
-    </row>
-    <row r="864" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B864" s="2"/>
-      <c r="C864" s="2"/>
-    </row>
-    <row r="865" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B865" s="2"/>
-      <c r="C865" s="2"/>
-    </row>
-    <row r="866" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B866" s="2"/>
-      <c r="C866" s="2"/>
-    </row>
-    <row r="867" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B867" s="2"/>
-      <c r="C867" s="2"/>
-    </row>
-    <row r="868" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B868" s="2"/>
-      <c r="C868" s="2"/>
-    </row>
-    <row r="869" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B869" s="2"/>
-      <c r="C869" s="2"/>
-    </row>
-    <row r="870" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B870" s="2"/>
-      <c r="C870" s="2"/>
-    </row>
-    <row r="871" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B871" s="2"/>
-      <c r="C871" s="2"/>
-    </row>
-    <row r="872" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B872" s="2"/>
-      <c r="C872" s="2"/>
-    </row>
-    <row r="873" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B873" s="2"/>
-      <c r="C873" s="2"/>
-    </row>
-    <row r="874" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B874" s="2"/>
-      <c r="C874" s="2"/>
-    </row>
-    <row r="875" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B875" s="2"/>
-      <c r="C875" s="2"/>
-    </row>
-    <row r="876" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B876" s="2"/>
-      <c r="C876" s="2"/>
-    </row>
-    <row r="877" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B877" s="2"/>
-      <c r="C877" s="2"/>
-    </row>
-    <row r="878" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B878" s="2"/>
-      <c r="C878" s="2"/>
-    </row>
-    <row r="879" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B879" s="2"/>
-      <c r="C879" s="2"/>
-    </row>
-    <row r="880" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B880" s="2"/>
-      <c r="C880" s="2"/>
-    </row>
-    <row r="881" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B881" s="2"/>
-      <c r="C881" s="2"/>
-    </row>
-    <row r="882" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B882" s="2"/>
-      <c r="C882" s="2"/>
-    </row>
-    <row r="883" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B883" s="2"/>
-      <c r="C883" s="2"/>
-    </row>
-    <row r="884" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B884" s="2"/>
-      <c r="C884" s="2"/>
-    </row>
-    <row r="885" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B885" s="2"/>
-      <c r="C885" s="2"/>
-    </row>
-    <row r="886" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B886" s="2"/>
-      <c r="C886" s="2"/>
-    </row>
-    <row r="887" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B887" s="2"/>
-      <c r="C887" s="2"/>
-    </row>
-    <row r="888" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B888" s="2"/>
-      <c r="C888" s="2"/>
-    </row>
-    <row r="889" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B889" s="2"/>
-      <c r="C889" s="2"/>
-    </row>
-    <row r="890" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B890" s="2"/>
-      <c r="C890" s="2"/>
-    </row>
-    <row r="891" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B891" s="2"/>
-      <c r="C891" s="2"/>
-    </row>
-    <row r="892" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B892" s="2"/>
-      <c r="C892" s="2"/>
-    </row>
-    <row r="893" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B893" s="2"/>
-      <c r="C893" s="2"/>
-    </row>
-    <row r="894" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B894" s="2"/>
-      <c r="C894" s="2"/>
-    </row>
-    <row r="895" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B895" s="2"/>
-      <c r="C895" s="2"/>
-    </row>
-    <row r="896" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B896" s="2"/>
-      <c r="C896" s="2"/>
-    </row>
-    <row r="897" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B897" s="2"/>
-      <c r="C897" s="2"/>
-    </row>
-    <row r="898" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B898" s="2"/>
-      <c r="C898" s="2"/>
-    </row>
-    <row r="899" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B899" s="2"/>
-      <c r="C899" s="2"/>
-    </row>
-    <row r="900" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B900" s="2"/>
-      <c r="C900" s="2"/>
-    </row>
-    <row r="901" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B901" s="2"/>
-      <c r="C901" s="2"/>
-    </row>
-    <row r="902" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B902" s="2"/>
-      <c r="C902" s="2"/>
-    </row>
-    <row r="903" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B903" s="2"/>
-      <c r="C903" s="2"/>
-    </row>
-    <row r="904" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B904" s="2"/>
-      <c r="C904" s="2"/>
-    </row>
-    <row r="905" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B905" s="2"/>
-      <c r="C905" s="2"/>
-    </row>
-    <row r="906" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B906" s="2"/>
-      <c r="C906" s="2"/>
-    </row>
-    <row r="907" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B907" s="2"/>
-      <c r="C907" s="2"/>
-    </row>
-    <row r="908" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B908" s="2"/>
-      <c r="C908" s="2"/>
-    </row>
-    <row r="909" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B909" s="2"/>
-      <c r="C909" s="2"/>
-    </row>
-    <row r="910" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B910" s="2"/>
-      <c r="C910" s="2"/>
-    </row>
-    <row r="911" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B911" s="2"/>
-      <c r="C911" s="2"/>
-    </row>
-    <row r="912" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B912" s="2"/>
-      <c r="C912" s="2"/>
-    </row>
-    <row r="913" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B913" s="2"/>
-      <c r="C913" s="2"/>
-    </row>
-    <row r="914" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B914" s="2"/>
-      <c r="C914" s="2"/>
-    </row>
-    <row r="915" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B915" s="2"/>
-      <c r="C915" s="2"/>
-    </row>
-    <row r="916" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B916" s="2"/>
-      <c r="C916" s="2"/>
-    </row>
-    <row r="917" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B917" s="2"/>
-      <c r="C917" s="2"/>
-    </row>
-    <row r="918" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B918" s="2"/>
-      <c r="C918" s="2"/>
-    </row>
-    <row r="919" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B919" s="2"/>
-      <c r="C919" s="2"/>
-    </row>
-    <row r="920" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B920" s="2"/>
-      <c r="C920" s="2"/>
-    </row>
-    <row r="921" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B921" s="2"/>
-      <c r="C921" s="2"/>
-    </row>
-    <row r="922" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B922" s="2"/>
-      <c r="C922" s="2"/>
-    </row>
-    <row r="923" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B923" s="2"/>
-      <c r="C923" s="2"/>
-    </row>
-    <row r="924" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B924" s="2"/>
-      <c r="C924" s="2"/>
-    </row>
-    <row r="925" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B925" s="2"/>
-      <c r="C925" s="2"/>
-    </row>
-    <row r="926" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B926" s="2"/>
-      <c r="C926" s="2"/>
-    </row>
-    <row r="927" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B927" s="2"/>
-      <c r="C927" s="2"/>
-    </row>
-    <row r="928" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B928" s="2"/>
-      <c r="C928" s="2"/>
-    </row>
-    <row r="929" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B929" s="2"/>
-      <c r="C929" s="2"/>
-    </row>
-    <row r="930" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B930" s="2"/>
-      <c r="C930" s="2"/>
-    </row>
-    <row r="931" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B931" s="2"/>
-      <c r="C931" s="2"/>
-    </row>
-    <row r="932" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B932" s="2"/>
-      <c r="C932" s="2"/>
-    </row>
-    <row r="933" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B933" s="2"/>
-      <c r="C933" s="2"/>
-    </row>
-    <row r="934" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B934" s="2"/>
-      <c r="C934" s="2"/>
-    </row>
-    <row r="935" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B935" s="2"/>
-      <c r="C935" s="2"/>
-    </row>
-    <row r="936" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B936" s="2"/>
-      <c r="C936" s="2"/>
-    </row>
-    <row r="937" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B937" s="2"/>
-      <c r="C937" s="2"/>
-    </row>
-    <row r="938" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B938" s="2"/>
-      <c r="C938" s="2"/>
-    </row>
-    <row r="939" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B939" s="2"/>
-      <c r="C939" s="2"/>
-    </row>
-    <row r="940" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B940" s="2"/>
-      <c r="C940" s="2"/>
-    </row>
-    <row r="941" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B941" s="2"/>
-      <c r="C941" s="2"/>
-    </row>
-    <row r="942" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B942" s="2"/>
-      <c r="C942" s="2"/>
-    </row>
-    <row r="943" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B943" s="2"/>
-      <c r="C943" s="2"/>
-    </row>
-    <row r="944" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B944" s="2"/>
-      <c r="C944" s="2"/>
-    </row>
-    <row r="945" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B945" s="2"/>
-      <c r="C945" s="2"/>
-    </row>
-    <row r="946" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B946" s="2"/>
-      <c r="C946" s="2"/>
-    </row>
-    <row r="947" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B947" s="2"/>
-      <c r="C947" s="2"/>
-    </row>
-    <row r="948" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B948" s="2"/>
-      <c r="C948" s="2"/>
-    </row>
-    <row r="949" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B949" s="2"/>
-      <c r="C949" s="2"/>
-    </row>
-    <row r="950" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B950" s="2"/>
-      <c r="C950" s="2"/>
-    </row>
-    <row r="951" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B951" s="2"/>
-      <c r="C951" s="2"/>
-    </row>
-    <row r="952" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B952" s="2"/>
-      <c r="C952" s="2"/>
-    </row>
-    <row r="953" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B953" s="2"/>
-      <c r="C953" s="2"/>
-    </row>
-    <row r="954" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B954" s="2"/>
-      <c r="C954" s="2"/>
-    </row>
-    <row r="955" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B955" s="2"/>
-      <c r="C955" s="2"/>
-    </row>
-    <row r="956" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B956" s="2"/>
-      <c r="C956" s="2"/>
-    </row>
-    <row r="957" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B957" s="2"/>
-      <c r="C957" s="2"/>
-    </row>
-    <row r="958" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B958" s="2"/>
-      <c r="C958" s="2"/>
-    </row>
-    <row r="959" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B959" s="2"/>
-      <c r="C959" s="2"/>
-    </row>
-    <row r="960" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B960" s="2"/>
-      <c r="C960" s="2"/>
-    </row>
-    <row r="961" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B961" s="2"/>
-      <c r="C961" s="2"/>
-    </row>
-    <row r="962" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B962" s="2"/>
-      <c r="C962" s="2"/>
-    </row>
-    <row r="963" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B963" s="2"/>
-      <c r="C963" s="2"/>
-    </row>
-    <row r="964" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B964" s="2"/>
-      <c r="C964" s="2"/>
-    </row>
-    <row r="965" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B965" s="2"/>
-      <c r="C965" s="2"/>
-    </row>
-    <row r="966" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B966" s="2"/>
-      <c r="C966" s="2"/>
-    </row>
-    <row r="967" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B967" s="2"/>
-      <c r="C967" s="2"/>
-    </row>
-    <row r="968" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B968" s="2"/>
-      <c r="C968" s="2"/>
-    </row>
-    <row r="969" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B969" s="2"/>
-      <c r="C969" s="2"/>
-    </row>
-    <row r="970" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B970" s="2"/>
-      <c r="C970" s="2"/>
-    </row>
-    <row r="971" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B971" s="2"/>
-      <c r="C971" s="2"/>
-    </row>
-    <row r="972" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B972" s="2"/>
-      <c r="C972" s="2"/>
-    </row>
-    <row r="973" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B973" s="2"/>
-      <c r="C973" s="2"/>
-    </row>
-    <row r="974" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B974" s="2"/>
-      <c r="C974" s="2"/>
-    </row>
-    <row r="975" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B975" s="2"/>
-      <c r="C975" s="2"/>
-    </row>
-    <row r="976" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B976" s="2"/>
-      <c r="C976" s="2"/>
-    </row>
-    <row r="977" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B977" s="2"/>
-      <c r="C977" s="2"/>
-    </row>
-    <row r="978" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B978" s="2"/>
-      <c r="C978" s="2"/>
-    </row>
-    <row r="979" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B979" s="2"/>
-      <c r="C979" s="2"/>
-    </row>
-    <row r="980" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B980" s="2"/>
-      <c r="C980" s="2"/>
-    </row>
-    <row r="981" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B981" s="2"/>
-      <c r="C981" s="2"/>
-    </row>
-    <row r="982" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B982" s="2"/>
-      <c r="C982" s="2"/>
-    </row>
-    <row r="983" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B983" s="2"/>
-      <c r="C983" s="2"/>
-    </row>
-    <row r="984" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B984" s="2"/>
-      <c r="C984" s="2"/>
-    </row>
-    <row r="985" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B985" s="2"/>
-      <c r="C985" s="2"/>
-    </row>
-    <row r="986" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B986" s="2"/>
-      <c r="C986" s="2"/>
-    </row>
-    <row r="987" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B987" s="2"/>
-      <c r="C987" s="2"/>
-    </row>
-    <row r="988" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B988" s="2"/>
-      <c r="C988" s="2"/>
-    </row>
-    <row r="989" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B989" s="2"/>
-      <c r="C989" s="2"/>
-    </row>
-    <row r="990" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B990" s="2"/>
-      <c r="C990" s="2"/>
-    </row>
-    <row r="991" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B991" s="2"/>
-      <c r="C991" s="2"/>
-    </row>
-    <row r="992" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B992" s="2"/>
-      <c r="C992" s="2"/>
-    </row>
-    <row r="993" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B993" s="2"/>
-      <c r="C993" s="2"/>
-    </row>
-    <row r="994" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B994" s="2"/>
-      <c r="C994" s="2"/>
-    </row>
-    <row r="995" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B995" s="2"/>
-      <c r="C995" s="2"/>
-    </row>
-    <row r="996" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B996" s="2"/>
-      <c r="C996" s="2"/>
-    </row>
-    <row r="997" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B997" s="2"/>
-      <c r="C997" s="2"/>
-    </row>
-    <row r="998" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B998" s="2"/>
-      <c r="C998" s="2"/>
-    </row>
-    <row r="999" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B999" s="2"/>
-      <c r="C999" s="2"/>
-    </row>
-    <row r="1000" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1000" s="2"/>
-      <c r="C1000" s="2"/>
-    </row>
-    <row r="1001" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1001" s="2"/>
-      <c r="C1001" s="2"/>
-    </row>
-    <row r="1002" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1002" s="2"/>
-      <c r="C1002" s="2"/>
-    </row>
-    <row r="1003" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1003" s="2"/>
-      <c r="C1003" s="2"/>
-    </row>
-    <row r="1004" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1004" s="2"/>
-      <c r="C1004" s="2"/>
-    </row>
-    <row r="1005" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B1005" s="2"/>
-      <c r="C1005" s="2"/>
-    </row>
-  </sheetData>
-  <autoFilter ref="B3:H15"/>
-  <mergeCells count="2">
-    <mergeCell ref="B1:C2"/>
-    <mergeCell ref="D1:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="148" priority="29" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="147" priority="30" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="146" priority="32" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1 B3:C3 B29:C1005 B4:B28">
-    <cfRule type="containsText" dxfId="145" priority="39" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="144" priority="13" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="143" priority="23" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="139" priority="27" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="138" priority="18" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="136" priority="20" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="135" priority="21" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="133" priority="14" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="132" priority="15" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="131" priority="16" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C24">
-    <cfRule type="dataBar" priority="12">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="9" tint="0.59999389629810485"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{7BAE86ED-27C1-45EC-95CC-4BCA929D06BF}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="129" priority="2" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="128" priority="7" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="127" priority="8" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="126" priority="9" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="125" priority="10" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25">
-    <cfRule type="containsText" dxfId="124" priority="11" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="123" priority="3" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="122" priority="4" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="121" priority="5" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C28">
-    <cfRule type="containsText" dxfId="120" priority="6" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C26)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C25:C28">
-    <cfRule type="dataBar" priority="1">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="9" tint="0.59999389629810485"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{BB28A821-A77E-448B-A34E-D312D9338D73}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B4:B28">
-      <formula1>$J$4:$J$9</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
-      <x14:conditionalFormattings>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{7BAE86ED-27C1-45EC-95CC-4BCA929D06BF}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C4:C24</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{BB28A821-A77E-448B-A34E-D312D9338D73}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>C25:C28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="28" operator="containsText" text="実装済" id="{A148C458-13BD-41AE-B9C7-535B2DA8EA7B}">
-            <xm:f>NOT(ISERROR(SEARCH("実装済",全リスト!B24)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B26:B27 B23:B24 B29:B30 B32:B1005</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="82" operator="containsText" text="実装済" id="{A148C458-13BD-41AE-B9C7-535B2DA8EA7B}">
-            <xm:f>NOT(ISERROR(SEARCH("実装済",全リスト!D30)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C29:C1005</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="110" operator="containsText" text="実装済" id="{A148C458-13BD-41AE-B9C7-535B2DA8EA7B}">
-            <xm:f>NOT(ISERROR(SEARCH("実装済",全リスト!#REF!)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B31 B28</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="142" operator="containsText" text="実装済" id="{A148C458-13BD-41AE-B9C7-535B2DA8EA7B}">
-            <xm:f>NOT(ISERROR(SEARCH("実装済",全リスト!B29)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B25</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="143" operator="containsText" text="実装済" id="{A148C458-13BD-41AE-B9C7-535B2DA8EA7B}">
-            <xm:f>NOT(ISERROR(SEARCH("実装済",全リスト!B1)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>B1 B3:B22</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="containsText" priority="148" operator="containsText" text="実装済" id="{A148C458-13BD-41AE-B9C7-535B2DA8EA7B}">
-            <xm:f>NOT(ISERROR(SEARCH("実装済",全リスト!D3)))</xm:f>
-            <x14:dxf>
-              <fill>
-                <patternFill patternType="solid">
-                  <fgColor rgb="FFB7E1CD"/>
-                  <bgColor theme="9" tint="0.39994506668294322"/>
-                </patternFill>
-              </fill>
-            </x14:dxf>
-          </x14:cfRule>
-          <xm:sqref>C3</xm:sqref>
-        </x14:conditionalFormatting>
-      </x14:conditionalFormattings>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>参照!$A$2:$A$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>D4:D28</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1">
-          <x14:formula1>
-            <xm:f>参照!$A$10:$A$20</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4:C28</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <tabColor rgb="FF6D9EEB"/>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <dimension ref="B1:J1001"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -17000,35 +12254,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="2:10" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -17042,266 +12296,266 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="14">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="12">
         <v>0</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="B5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="12">
         <v>0</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="10" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="12"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="12"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="J7" s="10" t="s">
+    <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
@@ -21219,212 +16473,212 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="113" priority="32" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="118" priority="32" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="112" priority="33" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="117" priority="33" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="111" priority="34" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="116" priority="34" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="110" priority="35" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="115" priority="35" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="109" priority="36" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="114" priority="36" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="108" priority="37" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="113" priority="37" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="107" priority="38" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="112" priority="38" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="106" priority="39" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="105" priority="40" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="110" priority="40" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="104" priority="41" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="109" priority="41" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="103" priority="42" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="108" priority="42" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="102" priority="43" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="107" priority="43" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="101" priority="27" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="106" priority="27" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="100" priority="28" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="105" priority="28" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="99" priority="29" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="104" priority="29" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="98" priority="30" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="103" priority="30" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="97" priority="31" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="102" priority="31" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="96" priority="22" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="101" priority="22" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="95" priority="23" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="100" priority="23" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="94" priority="24" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="93" priority="25" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="98" priority="25" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="92" priority="26" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="97" priority="26" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="91" priority="17" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="96" priority="17" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="90" priority="18" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="95" priority="18" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="89" priority="19" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="88" priority="20" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="93" priority="20" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="87" priority="21" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="86" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="85" priority="12" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="84" priority="13" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="83" priority="14" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="88" priority="14" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="82" priority="15" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="87" priority="15" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="81" priority="16" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="86" priority="16" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="80" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="79" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="84" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="78" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="76" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="74" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="79" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="73" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="72" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="77" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -21488,7 +16742,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF6D9EEB"/>
@@ -21498,7 +16752,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F2"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8:H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -21516,35 +16770,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="25" t="s">
-        <v>35</v>
-      </c>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
+      <c r="B1" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
     </row>
     <row r="2" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="11" t="s">
-        <v>25</v>
+      <c r="C3" s="9" t="s">
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>17</v>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>4</v>
@@ -21558,349 +16812,359 @@
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="J5" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="14">
+      <c r="G6" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="J6" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12">
         <v>0.1</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="19" t="s">
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="J4" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="14">
+      <c r="G7" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="J7" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="12">
         <v>0.1</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="J5" s="10" t="s">
+      <c r="D8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="J8" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="5"/>
-      <c r="J6" s="10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="J7" s="10" t="s">
+    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="J8" s="10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
+      <c r="B10" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="B11" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="B12" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="14"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="14"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="B17" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="B18" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="B19" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="14"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="B20" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="B21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="B22" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C23" s="14"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="B23" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="B25" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="12"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="14"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="B26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" s="14"/>
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
-      <c r="H27" s="5"/>
+      <c r="B27" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
+      <c r="B28" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
+      <c r="B29" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
@@ -25818,292 +21082,292 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="71" priority="64" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="76" priority="70" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="70" priority="65" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="75" priority="71" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="69" priority="66" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="74" priority="72" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="68" priority="67" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="67" priority="68" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="66" priority="69" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="65" priority="70" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="64" priority="71" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="63" priority="72" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="68" priority="78" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="62" priority="73" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="67" priority="79" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="61" priority="74" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="66" priority="80" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="60" priority="75" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="65" priority="81" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B8:B15">
-    <cfRule type="containsText" dxfId="59" priority="59" operator="containsText" text="実装済">
+  <conditionalFormatting sqref="B4:B5 B9:B15">
+    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B8:B15">
-    <cfRule type="containsText" dxfId="58" priority="60" operator="containsText" text="実装中">
+  <conditionalFormatting sqref="B4:B5 B9:B15">
+    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B8:B15">
-    <cfRule type="containsText" dxfId="57" priority="61" operator="containsText" text="作成中">
+  <conditionalFormatting sqref="B4:B5 B9:B15">
+    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B8:B15">
-    <cfRule type="containsText" dxfId="56" priority="62" operator="containsText" text="修正中">
+  <conditionalFormatting sqref="B4:B5 B9:B15">
+    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B8:B15">
-    <cfRule type="containsText" dxfId="55" priority="63" operator="containsText" text="完了">
+  <conditionalFormatting sqref="B4:B5 B9:B15">
+    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="54" priority="54" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="53" priority="55" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="52" priority="56" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="51" priority="57" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="56" priority="63" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="50" priority="58" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="55" priority="64" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="49" priority="49" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="48" priority="50" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="47" priority="51" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="46" priority="52" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="45" priority="53" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="44" priority="44" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="43" priority="45" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="42" priority="46" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="41" priority="47" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="40" priority="48" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="39" priority="39" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="38" priority="40" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="37" priority="41" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="36" priority="42" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="35" priority="43" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="34" priority="34" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="29" priority="19" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C8:C15">
-    <cfRule type="containsText" dxfId="28" priority="29" operator="containsText" text="実装済">
+  <conditionalFormatting sqref="C4:C5 C9:C15">
+    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C8:C15">
-    <cfRule type="containsText" dxfId="27" priority="30" operator="containsText" text="実装中">
+  <conditionalFormatting sqref="C4:C5 C9:C15">
+    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C8:C15">
-    <cfRule type="containsText" dxfId="26" priority="31" operator="containsText" text="作成中">
+  <conditionalFormatting sqref="C4:C5 C9:C15">
+    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C8:C15">
-    <cfRule type="containsText" dxfId="25" priority="32" operator="containsText" text="修正中">
+  <conditionalFormatting sqref="C4:C5 C9:C15">
+    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C8:C15">
-    <cfRule type="containsText" dxfId="24" priority="33" operator="containsText" text="完了">
+  <conditionalFormatting sqref="C4:C5 C9:C15">
+    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="23" priority="24" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="22" priority="25" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="21" priority="26" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="20" priority="27" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="19" priority="28" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="24" priority="34" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="18" priority="20" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="17" priority="21" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="16" priority="22" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="15" priority="23" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C8:C24">
-    <cfRule type="dataBar" priority="18">
+  <conditionalFormatting sqref="C4:C5 C9:C24">
+    <cfRule type="dataBar" priority="24">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -26117,57 +21381,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C29">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="13">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -26181,31 +21445,70 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C7">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C7">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C7">
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C7">
+    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C7">
+    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B6)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C7">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1FC37E2E-D7EA-49D8-A92E-BBFE50431884}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C7">
+      <formula>NOT(ISERROR(SEARCH("実装済",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C7">
+      <formula>NOT(ISERROR(SEARCH("実装中",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C7">
+      <formula>NOT(ISERROR(SEARCH("作成中",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C7">
+      <formula>NOT(ISERROR(SEARCH("修正中",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B6)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C7">
+      <formula>NOT(ISERROR(SEARCH("完了",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -26214,7 +21517,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{1FC37E2E-D7EA-49D8-A92E-BBFE50431884}</x14:id>
+          <x14:id>{AC91A029-61E1-41EC-8700-002DA819F13F}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -26242,7 +21545,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C5 C8:C24</xm:sqref>
+          <xm:sqref>C4:C5 C9:C24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{521083EB-3F0E-4695-88DE-814AD7ECBFE0}">
@@ -26274,6 +21577,21 @@
           </x14:cfRule>
           <xm:sqref>C6:C7</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AC91A029-61E1-41EC-8700-002DA819F13F}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C8</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/00_schedule/リスト.xlsx
+++ b/00_schedule/リスト.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9696" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="参照" sheetId="12" r:id="rId1"/>
@@ -29,13 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="47">
-  <si>
-    <t>エリア１</t>
-  </si>
-  <si>
-    <t>エリア２</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="55">
   <si>
     <t>作業状況</t>
   </si>
@@ -53,9 +47,6 @@
   </si>
   <si>
     <t>完了</t>
-  </si>
-  <si>
-    <t>ギミック002</t>
   </si>
   <si>
     <t>作成中</t>
@@ -164,16 +155,6 @@
   <si>
     <t>進捗</t>
     <rPh sb="0" eb="2">
-      <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>全体進捗</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンタイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
       <t>シンチョク</t>
     </rPh>
     <phoneticPr fontId="2"/>
@@ -356,6 +337,111 @@
   </si>
   <si>
     <t>プログラムリスト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ナイフの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>鎌の作成</t>
+    <rPh sb="0" eb="1">
+      <t>カマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>斧の作成</t>
+    <rPh sb="0" eb="1">
+      <t>オノ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アタッシュケースの作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ハーブの作成</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>救急スプレーの作成</t>
+    <rPh sb="0" eb="2">
+      <t>キュウキュウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾薬箱の作成</t>
+    <rPh sb="0" eb="3">
+      <t>ダンヤクバコ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弾の作成</t>
+    <rPh sb="0" eb="1">
+      <t>タマ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>木箱の作成</t>
+    <rPh sb="0" eb="2">
+      <t>キバコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>樽の作成</t>
+    <rPh sb="0" eb="1">
+      <t>タル</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>マップの作成</t>
+    <rPh sb="4" eb="6">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>全体進行率</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シンコウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>リツ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -622,7 +708,367 @@
     <cellStyle name="パーセント" xfId="1" builtinId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="233">
+  <dxfs count="313">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -2197,6 +2643,286 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF999999"/>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE69138"/>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFD966"/>
+          <bgColor rgb="FFFFD966"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFF2CC"/>
+          <bgColor rgb="FFFFF2CC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2723,43 +3449,43 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,11 +3558,11 @@
     <tabColor rgb="FF6D9EEB"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="B1:J1002"/>
+  <dimension ref="B1:J1010"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2855,11 +3581,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="24" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -2873,292 +3599,358 @@
     </row>
     <row r="3" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="J3" s="20"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12">
         <v>0.1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="12">
         <v>0.1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12">
         <v>0.1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12">
         <v>0.1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H8" s="4"/>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C9" s="12">
         <v>0.1</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
     </row>
     <row r="11" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
     </row>
     <row r="13" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
     <row r="14" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
     <row r="15" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>27</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="12"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="C20" s="12">
+        <v>0</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
       <c r="H20" s="4"/>
     </row>
     <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="4"/>
@@ -3169,7 +3961,7 @@
     </row>
     <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="4"/>
@@ -3179,8 +3971,8 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6" t="s">
-        <v>13</v>
+      <c r="B23" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
@@ -3190,8 +3982,8 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6" t="s">
-        <v>13</v>
+      <c r="B24" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="4"/>
@@ -3201,8 +3993,8 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B25" s="6" t="s">
-        <v>13</v>
+      <c r="B25" s="19" t="s">
+        <v>10</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
@@ -3212,102 +4004,158 @@
       <c r="H25" s="4"/>
     </row>
     <row r="26" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C26" s="2"/>
-    </row>
-    <row r="27" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-    </row>
-    <row r="28" spans="2:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28" s="15">
-        <f>COUNTA(B4:B25)</f>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C29" s="13">
-        <f>SUM(C4:C25)/$C$28</f>
-        <v>2.7272727272727271E-2</v>
-      </c>
+      <c r="B26" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B28" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B29" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="12"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
     <row r="30" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
+      <c r="B30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
     </row>
     <row r="31" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="B31" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
     </row>
     <row r="32" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
+      <c r="B32" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B33" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="12"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C34" s="2"/>
     </row>
-    <row r="35" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
     </row>
-    <row r="36" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C36" s="15">
+        <f>COUNTA(B4:B33)</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="13">
+        <f>SUM(C4:C33)/$C$36</f>
+        <v>2.6666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B40" s="2"/>
+    <row r="40" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
     </row>
-    <row r="43" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
     </row>
-    <row r="44" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
     </row>
-    <row r="45" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
     </row>
-    <row r="46" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
     </row>
-    <row r="47" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
     </row>
-    <row r="48" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
     </row>
@@ -7126,6 +7974,38 @@
     <row r="1002" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B1002" s="2"/>
       <c r="C1002" s="2"/>
+    </row>
+    <row r="1003" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+    </row>
+    <row r="1004" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1004" s="2"/>
+      <c r="C1004" s="2"/>
+    </row>
+    <row r="1005" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+    </row>
+    <row r="1006" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+    </row>
+    <row r="1007" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1007" s="2"/>
+      <c r="C1007" s="2"/>
+    </row>
+    <row r="1008" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1008" s="2"/>
+      <c r="C1008" s="2"/>
+    </row>
+    <row r="1009" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1009" s="2"/>
+      <c r="C1009" s="2"/>
+    </row>
+    <row r="1010" spans="2:3" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B1010" s="2"/>
+      <c r="C1010" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:H15"/>
@@ -7134,143 +8014,143 @@
     <mergeCell ref="D1:F2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="232" priority="29" operator="containsText" text="仕様確定">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="312" priority="98" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="231" priority="30" operator="containsText" text="美設作成中">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="311" priority="99" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="230" priority="31" operator="containsText" text="美設済">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="310" priority="100" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="229" priority="32" operator="containsText" text="デザイン作成中">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="309" priority="101" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="228" priority="33" operator="containsText" text="デザイン済">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="308" priority="102" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="227" priority="34" operator="containsText" text="プログラム実装中">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="307" priority="103" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="226" priority="35" operator="containsText" text="プログラム済">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="306" priority="104" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="225" priority="36" operator="containsText" text="パラメータ作成中">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="305" priority="105" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="224" priority="37" operator="containsText" text="パラメータ済">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="304" priority="106" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="223" priority="38" operator="containsText" text="チェック">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="303" priority="107" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="222" priority="39" operator="containsText" text="修正">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="302" priority="108" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:C3 C26 B33:C1002 C32 B27:C31 B1">
-    <cfRule type="containsText" dxfId="221" priority="40" operator="containsText" text="完了">
+  <conditionalFormatting sqref="B3:C3 C34 B41:C1010 C40 B35:C39 B1">
+    <cfRule type="containsText" dxfId="301" priority="109" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="220" priority="14" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="219" priority="24" operator="containsText" text="実装済">
+  <conditionalFormatting sqref="B30:C33">
+    <cfRule type="containsText" dxfId="300" priority="83" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:C9">
+    <cfRule type="containsText" dxfId="299" priority="93" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="218" priority="25" operator="containsText" text="実装中">
+  <conditionalFormatting sqref="B6:C9">
+    <cfRule type="containsText" dxfId="298" priority="94" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="217" priority="26" operator="containsText" text="作成中">
+  <conditionalFormatting sqref="B6:C9">
+    <cfRule type="containsText" dxfId="297" priority="95" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="216" priority="27" operator="containsText" text="修正中">
+  <conditionalFormatting sqref="B6:C9">
+    <cfRule type="containsText" dxfId="296" priority="96" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B6:C15">
-    <cfRule type="containsText" dxfId="215" priority="28" operator="containsText" text="完了">
+  <conditionalFormatting sqref="B6:C9">
+    <cfRule type="containsText" dxfId="295" priority="97" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="214" priority="19" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="213" priority="20" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="212" priority="21" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="211" priority="22" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:C21">
-    <cfRule type="containsText" dxfId="210" priority="23" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="209" priority="15" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="208" priority="16" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="207" priority="17" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B22:C25">
-    <cfRule type="containsText" dxfId="206" priority="18" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:C25">
-    <cfRule type="dataBar" priority="13">
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="294" priority="88" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="293" priority="89" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="292" priority="90" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="291" priority="91" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B21:C21">
+    <cfRule type="containsText" dxfId="290" priority="92" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C33">
+    <cfRule type="containsText" dxfId="289" priority="84" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C33">
+    <cfRule type="containsText" dxfId="288" priority="85" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C33">
+    <cfRule type="containsText" dxfId="287" priority="86" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B30:C33">
+    <cfRule type="containsText" dxfId="286" priority="87" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B30)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C6:C9 C21 C30:C33">
+    <cfRule type="dataBar" priority="82">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7283,8 +8163,8 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29">
-    <cfRule type="dataBar" priority="12">
+  <conditionalFormatting sqref="C37">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7298,57 +8178,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="205" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="285" priority="76" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="204" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="284" priority="77" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="203" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="283" priority="78" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="202" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="282" priority="79" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B5">
-    <cfRule type="containsText" dxfId="201" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="281" priority="80" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="200" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="280" priority="71" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="199" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="279" priority="72" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="198" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="278" priority="73" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="197" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="277" priority="74" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="containsText" dxfId="196" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="276" priority="75" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C5">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7361,8 +8241,434 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B16">
+    <cfRule type="containsText" dxfId="275" priority="65" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B16">
+    <cfRule type="containsText" dxfId="274" priority="66" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B16">
+    <cfRule type="containsText" dxfId="273" priority="67" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B16">
+    <cfRule type="containsText" dxfId="272" priority="68" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B10:B16">
+    <cfRule type="containsText" dxfId="271" priority="69" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="containsText" dxfId="270" priority="60" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="containsText" dxfId="269" priority="61" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="containsText" dxfId="268" priority="62" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="containsText" dxfId="267" priority="63" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17:B20">
+    <cfRule type="containsText" dxfId="266" priority="64" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="containsText" dxfId="265" priority="55" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="containsText" dxfId="264" priority="56" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="containsText" dxfId="263" priority="57" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="containsText" dxfId="262" priority="58" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C16">
+    <cfRule type="containsText" dxfId="261" priority="59" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",C10)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="260" priority="50" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="259" priority="51" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="258" priority="52" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="257" priority="53" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17:C20">
+    <cfRule type="containsText" dxfId="256" priority="54" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",C17)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C10:C20">
+    <cfRule type="dataBar" priority="49">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21F74BCA-5026-450A-9DB2-EA3F213FF3E2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="255" priority="44" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="254" priority="45" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="253" priority="46" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="252" priority="47" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B22:C22">
+    <cfRule type="containsText" dxfId="251" priority="48" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22">
+    <cfRule type="dataBar" priority="43">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{1F05B6A0-A9B2-490E-85D6-49740AE2E206}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="250" priority="38" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="249" priority="39" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="248" priority="40" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="247" priority="41" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:C23">
+    <cfRule type="containsText" dxfId="246" priority="42" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B23)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C23">
+    <cfRule type="dataBar" priority="37">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{21F58E49-0537-49B2-B317-780ED8DF73FC}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="containsText" dxfId="245" priority="32" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="containsText" dxfId="244" priority="33" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="containsText" dxfId="243" priority="34" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="containsText" dxfId="242" priority="35" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29:C29">
+    <cfRule type="containsText" dxfId="241" priority="36" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29">
+    <cfRule type="dataBar" priority="31">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A98B6CC1-6A92-4C55-A858-B889E1F0273B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="containsText" dxfId="44" priority="26" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="containsText" dxfId="43" priority="27" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="containsText" dxfId="42" priority="28" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="containsText" dxfId="41" priority="29" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:C24">
+    <cfRule type="containsText" dxfId="40" priority="30" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B24)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{2C1F9FA8-5371-4978-AC0B-BCD5F7119777}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="containsText" dxfId="39" priority="20" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="containsText" dxfId="38" priority="21" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="containsText" dxfId="37" priority="22" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="containsText" dxfId="36" priority="23" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:C25">
+    <cfRule type="containsText" dxfId="35" priority="24" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C25">
+    <cfRule type="dataBar" priority="19">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{61BAA119-60E9-42E8-9DB4-3825915C8C95}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsText" dxfId="34" priority="14" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsText" dxfId="33" priority="15" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsText" dxfId="32" priority="16" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsText" dxfId="31" priority="17" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26:C26">
+    <cfRule type="containsText" dxfId="30" priority="18" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{76039707-0199-4EEA-9EBF-8640E19BC19C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="28" priority="9" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="27" priority="10" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="26" priority="11" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B27:C27">
+    <cfRule type="containsText" dxfId="25" priority="12" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B27)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C27">
+    <cfRule type="dataBar" priority="7">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{E7AF7B75-3B6B-47DE-9882-1D841C819D48}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="24" priority="2" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B28:C28">
+    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B28)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{0C159009-CF14-4F4C-A414-5B02733D7785}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="B4:B25">
+    <dataValidation type="list" allowBlank="1" sqref="B4:B33">
       <formula1>$J$4:$J$9</formula1>
     </dataValidation>
   </dataValidations>
@@ -7384,7 +8690,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C6:C25</xm:sqref>
+          <xm:sqref>C6:C9 C21 C30:C33</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{F84BA731-9256-49B9-B28B-CE053D450B4D}">
@@ -7399,7 +8705,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C29</xm:sqref>
+          <xm:sqref>C37</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{516A6AB0-92ED-4D61-893A-E92A2C0B4840}">
@@ -7416,6 +8722,141 @@
           </x14:cfRule>
           <xm:sqref>C4:C5</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21F74BCA-5026-450A-9DB2-EA3F213FF3E2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C10:C20</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{1F05B6A0-A9B2-490E-85D6-49740AE2E206}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C22</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{21F58E49-0537-49B2-B317-780ED8DF73FC}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C23</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A98B6CC1-6A92-4C55-A858-B889E1F0273B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C29</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{2C1F9FA8-5371-4978-AC0B-BCD5F7119777}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C24</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{61BAA119-60E9-42E8-9DB4-3825915C8C95}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C25</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{76039707-0199-4EEA-9EBF-8640E19BC19C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C26</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{E7AF7B75-3B6B-47DE-9882-1D841C819D48}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C27</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{0C159009-CF14-4F4C-A414-5B02733D7785}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C28</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -7424,13 +8865,13 @@
           <x14:formula1>
             <xm:f>参照!$A$2:$A$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D4:D25</xm:sqref>
+          <xm:sqref>D4:D33</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1">
           <x14:formula1>
             <xm:f>参照!$A$10:$A$20</xm:f>
           </x14:formula1>
-          <xm:sqref>C4:C25</xm:sqref>
+          <xm:sqref>C4:C33</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -7446,9 +8887,9 @@
   </sheetPr>
   <dimension ref="B1:J1004"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D6" sqref="D6"/>
+      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7467,11 +8908,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -7485,73 +8926,69 @@
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="19" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12">
         <v>0.1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="H4" s="4"/>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="4"/>
@@ -7560,12 +8997,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="4"/>
@@ -7574,12 +9011,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="4"/>
@@ -7588,12 +9025,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="4"/>
@@ -7602,12 +9039,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="4"/>
@@ -7619,7 +9056,7 @@
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="4"/>
@@ -7631,7 +9068,7 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="4"/>
@@ -7643,7 +9080,7 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="4"/>
@@ -7655,7 +9092,7 @@
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="4"/>
@@ -7667,7 +9104,7 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="4"/>
@@ -7678,7 +9115,7 @@
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="4"/>
@@ -7689,7 +9126,7 @@
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="4"/>
@@ -7700,7 +9137,7 @@
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="4"/>
@@ -7711,7 +9148,7 @@
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="4"/>
@@ -7722,7 +9159,7 @@
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="4"/>
@@ -7733,7 +9170,7 @@
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="4"/>
@@ -7744,7 +9181,7 @@
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="4"/>
@@ -7755,7 +9192,7 @@
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
@@ -7766,7 +9203,7 @@
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="4"/>
@@ -7777,7 +9214,7 @@
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
@@ -7788,7 +9225,7 @@
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="4"/>
@@ -7799,7 +9236,7 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="4"/>
@@ -11724,262 +13161,262 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="195" priority="69" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="240" priority="69" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="194" priority="70" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="239" priority="70" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="193" priority="71" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="238" priority="71" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="192" priority="72" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="237" priority="72" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="191" priority="73" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="236" priority="73" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="190" priority="74" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="235" priority="74" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="189" priority="75" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="234" priority="75" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="188" priority="76" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="233" priority="76" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="187" priority="77" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="232" priority="77" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="186" priority="78" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="231" priority="78" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="185" priority="79" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="230" priority="79" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B28:C1004 B1">
-    <cfRule type="containsText" dxfId="184" priority="80" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="229" priority="80" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="containsText" dxfId="183" priority="64" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="228" priority="64" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="containsText" dxfId="182" priority="65" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="227" priority="65" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="containsText" dxfId="181" priority="66" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="226" priority="66" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="containsText" dxfId="180" priority="67" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="225" priority="67" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B12">
-    <cfRule type="containsText" dxfId="179" priority="68" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="224" priority="68" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="178" priority="59" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="223" priority="59" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="177" priority="60" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="222" priority="60" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="176" priority="61" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="221" priority="61" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="175" priority="62" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="220" priority="62" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13:B18">
-    <cfRule type="containsText" dxfId="174" priority="63" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="219" priority="63" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="173" priority="54" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="218" priority="54" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="172" priority="55" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="217" priority="55" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="171" priority="56" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="216" priority="56" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="170" priority="57" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="215" priority="57" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="169" priority="58" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="214" priority="58" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="168" priority="49" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="213" priority="49" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="167" priority="50" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="212" priority="50" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="166" priority="51" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="211" priority="51" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="165" priority="52" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="210" priority="52" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20:B23">
-    <cfRule type="containsText" dxfId="164" priority="53" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="209" priority="53" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="163" priority="44" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="208" priority="44" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="162" priority="45" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="207" priority="45" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="161" priority="46" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="206" priority="46" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="160" priority="47" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="205" priority="47" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B24">
-    <cfRule type="containsText" dxfId="159" priority="48" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="204" priority="48" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B24)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="158" priority="39" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="203" priority="39" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="157" priority="40" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="202" priority="40" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="156" priority="41" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="201" priority="41" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="155" priority="42" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="200" priority="42" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="154" priority="43" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="199" priority="43" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="153" priority="34" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="198" priority="34" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="152" priority="35" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="197" priority="35" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="151" priority="36" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="196" priority="36" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="150" priority="37" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="195" priority="37" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26">
-    <cfRule type="containsText" dxfId="149" priority="38" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="194" priority="38" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="148" priority="29" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="193" priority="29" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="147" priority="30" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="192" priority="30" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="146" priority="31" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="191" priority="31" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="145" priority="32" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="190" priority="32" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B27">
-    <cfRule type="containsText" dxfId="144" priority="33" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="189" priority="33" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B27)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11998,77 +13435,77 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="143" priority="14" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="188" priority="14" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="containsText" dxfId="142" priority="24" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="187" priority="24" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="containsText" dxfId="141" priority="25" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="186" priority="25" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="containsText" dxfId="140" priority="26" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="185" priority="26" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="containsText" dxfId="139" priority="27" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="184" priority="27" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5:C15">
-    <cfRule type="containsText" dxfId="138" priority="28" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="183" priority="28" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="137" priority="19" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="182" priority="19" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="136" priority="20" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="181" priority="20" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="135" priority="21" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="180" priority="21" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="134" priority="22" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="179" priority="22" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="133" priority="23" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="178" priority="23" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="132" priority="15" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="177" priority="15" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="131" priority="16" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="176" priority="16" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="130" priority="17" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="175" priority="17" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="129" priority="18" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="174" priority="18" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12087,52 +13524,52 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="128" priority="8" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="173" priority="8" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="127" priority="9" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="172" priority="9" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="126" priority="10" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="171" priority="10" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="125" priority="11" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="170" priority="11" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C27">
-    <cfRule type="containsText" dxfId="124" priority="12" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="169" priority="12" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsText" dxfId="123" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="168" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsText" dxfId="122" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="167" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsText" dxfId="121" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="166" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsText" dxfId="120" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="165" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:C4">
-    <cfRule type="containsText" dxfId="119" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="164" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -12236,7 +13673,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1:F2"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12255,11 +13692,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -12273,67 +13710,61 @@
     </row>
     <row r="3" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C4" s="12">
         <v>0</v>
       </c>
       <c r="D4" s="4"/>
-      <c r="E4" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="E4" s="5"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="12">
-        <v>0</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="C5" s="12"/>
       <c r="D5" s="4"/>
-      <c r="E5" s="5" t="s">
-        <v>1</v>
-      </c>
+      <c r="E5" s="5"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="4"/>
@@ -12342,12 +13773,12 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="4"/>
@@ -12356,12 +13787,12 @@
       <c r="G7" s="4"/>
       <c r="H7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="4"/>
@@ -12370,12 +13801,12 @@
       <c r="G8" s="4"/>
       <c r="H8" s="4"/>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="4"/>
@@ -12384,12 +13815,12 @@
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="4"/>
@@ -12401,7 +13832,7 @@
     </row>
     <row r="11" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="4"/>
@@ -12413,7 +13844,7 @@
     </row>
     <row r="12" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="4"/>
@@ -12425,7 +13856,7 @@
     </row>
     <row r="13" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="4"/>
@@ -12437,7 +13868,7 @@
     </row>
     <row r="14" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="4"/>
@@ -12449,7 +13880,7 @@
     </row>
     <row r="15" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="4"/>
@@ -12460,7 +13891,7 @@
     </row>
     <row r="16" spans="2:10" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="4"/>
@@ -12471,7 +13902,7 @@
     </row>
     <row r="17" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="4"/>
@@ -12482,7 +13913,7 @@
     </row>
     <row r="18" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="4"/>
@@ -12493,7 +13924,7 @@
     </row>
     <row r="19" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="4"/>
@@ -12504,7 +13935,7 @@
     </row>
     <row r="20" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="4"/>
@@ -12515,7 +13946,7 @@
     </row>
     <row r="21" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="4"/>
@@ -12526,7 +13957,7 @@
     </row>
     <row r="22" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="4"/>
@@ -12537,7 +13968,7 @@
     </row>
     <row r="23" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
@@ -12548,7 +13979,7 @@
     </row>
     <row r="24" spans="2:8" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="4"/>
@@ -16473,212 +17904,212 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="118" priority="32" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="163" priority="32" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="117" priority="33" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="162" priority="33" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="116" priority="34" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="161" priority="34" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="115" priority="35" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="160" priority="35" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="114" priority="36" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="159" priority="36" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="113" priority="37" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="158" priority="37" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="112" priority="38" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="157" priority="38" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="111" priority="39" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="156" priority="39" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="110" priority="40" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="155" priority="40" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="109" priority="41" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="154" priority="41" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="108" priority="42" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="153" priority="42" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B25:C1001 B1">
-    <cfRule type="containsText" dxfId="107" priority="43" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="152" priority="43" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="106" priority="27" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="151" priority="27" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="105" priority="28" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="150" priority="28" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="104" priority="29" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="149" priority="29" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="103" priority="30" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="148" priority="30" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:B15">
-    <cfRule type="containsText" dxfId="102" priority="31" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="147" priority="31" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="101" priority="22" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="146" priority="22" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="100" priority="23" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="145" priority="23" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="99" priority="24" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="144" priority="24" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="98" priority="25" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="143" priority="25" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="97" priority="26" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="142" priority="26" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="96" priority="17" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="141" priority="17" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="95" priority="18" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="140" priority="18" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="94" priority="19" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="139" priority="19" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="93" priority="20" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="138" priority="20" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="92" priority="21" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="137" priority="21" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="91" priority="2" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="136" priority="2" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="135" priority="12" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="89" priority="13" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="134" priority="13" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="88" priority="14" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="133" priority="14" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="87" priority="15" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="132" priority="15" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:C15">
-    <cfRule type="containsText" dxfId="86" priority="16" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="131" priority="16" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="130" priority="7" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="84" priority="8" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="129" priority="8" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="83" priority="9" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="128" priority="9" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="82" priority="10" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="127" priority="10" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="126" priority="11" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="80" priority="3" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="125" priority="3" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="79" priority="4" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="124" priority="4" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="78" priority="5" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="123" priority="5" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="77" priority="6" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="122" priority="6" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16752,7 +18183,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8:H8"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16771,11 +18202,11 @@
   <sheetData>
     <row r="1" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="26" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C1" s="26"/>
       <c r="D1" s="24" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E1" s="24"/>
       <c r="F1" s="24"/>
@@ -16789,165 +18220,177 @@
     </row>
     <row r="3" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="12">
         <v>0.1</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="J4" s="7" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C5" s="12">
         <v>0.1</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="J5" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C6" s="12">
         <v>0.1</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="G6" s="18" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4"/>
       <c r="J6" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="12">
         <v>0.1</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4"/>
       <c r="J7" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C8" s="12">
         <v>0.1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="H8" s="4"/>
       <c r="J8" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C9" s="12">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>43</v>
+      </c>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
       <c r="H9" s="4"/>
       <c r="J9" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C10" s="12">
+        <v>0</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="F10" s="4"/>
       <c r="G10" s="4"/>
       <c r="H10" s="4"/>
@@ -16955,11 +18398,17 @@
     </row>
     <row r="11" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C11" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
@@ -16967,11 +18416,17 @@
     </row>
     <row r="12" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>46</v>
+      </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
@@ -16979,11 +18434,17 @@
     </row>
     <row r="13" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C13" s="12">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>47</v>
+      </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
@@ -16991,11 +18452,17 @@
     </row>
     <row r="14" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C14" s="12">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>48</v>
+      </c>
       <c r="F14" s="4"/>
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
@@ -17003,62 +18470,92 @@
     </row>
     <row r="15" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C15" s="12">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>49</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="2:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C16" s="12">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="17" t="s">
+        <v>50</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>51</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C18" s="12">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="17" t="s">
+        <v>52</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="12">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="4"/>
@@ -17069,7 +18566,7 @@
     </row>
     <row r="21" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="4"/>
@@ -17080,7 +18577,7 @@
     </row>
     <row r="22" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="4"/>
@@ -17091,7 +18588,7 @@
     </row>
     <row r="23" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="4"/>
@@ -17102,7 +18599,7 @@
     </row>
     <row r="24" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="4"/>
@@ -17113,7 +18610,7 @@
     </row>
     <row r="25" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="4"/>
@@ -17124,7 +18621,7 @@
     </row>
     <row r="26" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="4"/>
@@ -17135,7 +18632,7 @@
     </row>
     <row r="27" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="4"/>
@@ -17146,7 +18643,7 @@
     </row>
     <row r="28" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="4"/>
@@ -17157,7 +18654,7 @@
     </row>
     <row r="29" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="4"/>
@@ -21082,292 +22579,292 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="76" priority="70" operator="containsText" text="仕様確定">
+    <cfRule type="containsText" dxfId="121" priority="91" operator="containsText" text="仕様確定">
       <formula>NOT(ISERROR(SEARCH(("仕様確定"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="75" priority="71" operator="containsText" text="美設作成中">
+    <cfRule type="containsText" dxfId="120" priority="92" operator="containsText" text="美設作成中">
       <formula>NOT(ISERROR(SEARCH(("美設作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="74" priority="72" operator="containsText" text="美設済">
+    <cfRule type="containsText" dxfId="119" priority="93" operator="containsText" text="美設済">
       <formula>NOT(ISERROR(SEARCH(("美設済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="73" priority="73" operator="containsText" text="デザイン作成中">
+    <cfRule type="containsText" dxfId="118" priority="94" operator="containsText" text="デザイン作成中">
       <formula>NOT(ISERROR(SEARCH(("デザイン作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="72" priority="74" operator="containsText" text="デザイン済">
+    <cfRule type="containsText" dxfId="117" priority="95" operator="containsText" text="デザイン済">
       <formula>NOT(ISERROR(SEARCH(("デザイン済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="71" priority="75" operator="containsText" text="プログラム実装中">
+    <cfRule type="containsText" dxfId="116" priority="96" operator="containsText" text="プログラム実装中">
       <formula>NOT(ISERROR(SEARCH(("プログラム実装中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="70" priority="76" operator="containsText" text="プログラム済">
+    <cfRule type="containsText" dxfId="115" priority="97" operator="containsText" text="プログラム済">
       <formula>NOT(ISERROR(SEARCH(("プログラム済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="69" priority="77" operator="containsText" text="パラメータ作成中">
+    <cfRule type="containsText" dxfId="114" priority="98" operator="containsText" text="パラメータ作成中">
       <formula>NOT(ISERROR(SEARCH(("パラメータ作成中"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="68" priority="78" operator="containsText" text="パラメータ済">
+    <cfRule type="containsText" dxfId="113" priority="99" operator="containsText" text="パラメータ済">
       <formula>NOT(ISERROR(SEARCH(("パラメータ済"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="67" priority="79" operator="containsText" text="チェック">
+    <cfRule type="containsText" dxfId="112" priority="100" operator="containsText" text="チェック">
       <formula>NOT(ISERROR(SEARCH(("チェック"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="66" priority="80" operator="containsText" text="修正">
+    <cfRule type="containsText" dxfId="111" priority="101" operator="containsText" text="修正">
       <formula>NOT(ISERROR(SEARCH(("修正"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:C3 B30:C1006 B1">
-    <cfRule type="containsText" dxfId="65" priority="81" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="110" priority="102" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH(("完了"),(B1))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B9:B15">
-    <cfRule type="containsText" dxfId="64" priority="65" operator="containsText" text="実装済">
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="containsText" dxfId="109" priority="86" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B9:B15">
-    <cfRule type="containsText" dxfId="63" priority="66" operator="containsText" text="実装中">
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="containsText" dxfId="108" priority="87" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B9:B15">
-    <cfRule type="containsText" dxfId="62" priority="67" operator="containsText" text="作成中">
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="containsText" dxfId="107" priority="88" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B9:B15">
-    <cfRule type="containsText" dxfId="61" priority="68" operator="containsText" text="修正中">
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="containsText" dxfId="106" priority="89" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B4:B5 B9:B15">
-    <cfRule type="containsText" dxfId="60" priority="69" operator="containsText" text="完了">
+  <conditionalFormatting sqref="B4:B5">
+    <cfRule type="containsText" dxfId="105" priority="90" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="59" priority="60" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="58" priority="61" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="57" priority="62" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="56" priority="63" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B21">
-    <cfRule type="containsText" dxfId="55" priority="64" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="104" priority="81" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="103" priority="82" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="102" priority="83" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="101" priority="84" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B20:B21">
+    <cfRule type="containsText" dxfId="100" priority="85" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="54" priority="55" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="99" priority="76" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="53" priority="56" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="98" priority="77" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="52" priority="57" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="97" priority="78" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="51" priority="58" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="96" priority="79" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B22:B24">
-    <cfRule type="containsText" dxfId="50" priority="59" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="95" priority="80" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="49" priority="50" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="94" priority="71" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="48" priority="51" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="93" priority="72" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="47" priority="52" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="92" priority="73" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="46" priority="53" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="91" priority="74" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25">
-    <cfRule type="containsText" dxfId="45" priority="54" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="90" priority="75" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="44" priority="45" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="89" priority="66" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="43" priority="46" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="88" priority="67" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="42" priority="47" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="87" priority="68" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="41" priority="48" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="86" priority="69" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B26:B28">
-    <cfRule type="containsText" dxfId="40" priority="49" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="85" priority="70" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B26)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="39" priority="40" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="84" priority="61" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="38" priority="41" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="83" priority="62" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="37" priority="42" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="82" priority="63" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="81" priority="64" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="80" priority="65" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="34" priority="25" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="79" priority="46" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C9:C15">
-    <cfRule type="containsText" dxfId="33" priority="35" operator="containsText" text="実装済">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="containsText" dxfId="78" priority="56" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C9:C15">
-    <cfRule type="containsText" dxfId="32" priority="36" operator="containsText" text="実装中">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="containsText" dxfId="77" priority="57" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C9:C15">
-    <cfRule type="containsText" dxfId="31" priority="37" operator="containsText" text="作成中">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="containsText" dxfId="76" priority="58" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C9:C15">
-    <cfRule type="containsText" dxfId="30" priority="38" operator="containsText" text="修正中">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="containsText" dxfId="75" priority="59" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C9:C15">
-    <cfRule type="containsText" dxfId="29" priority="39" operator="containsText" text="完了">
+  <conditionalFormatting sqref="C4:C5">
+    <cfRule type="containsText" dxfId="74" priority="60" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="28" priority="30" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="27" priority="31" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="26" priority="32" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="25" priority="33" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:C21">
-    <cfRule type="containsText" dxfId="24" priority="34" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="containsText" dxfId="73" priority="51" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="containsText" dxfId="72" priority="52" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="containsText" dxfId="71" priority="53" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="containsText" dxfId="70" priority="54" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",C20)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C20:C21">
+    <cfRule type="containsText" dxfId="69" priority="55" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",C20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="68" priority="47" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="22" priority="27" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="67" priority="48" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="66" priority="49" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C22:C24">
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="65" priority="50" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C5 C9:C24">
-    <cfRule type="dataBar" priority="24">
+  <conditionalFormatting sqref="C4:C5 C20:C24">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -21381,57 +22878,57 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="19" priority="14" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="64" priority="35" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="63" priority="40" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="62" priority="41" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="16" priority="21" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="61" priority="42" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="15" priority="22" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="60" priority="43" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C26">
-    <cfRule type="containsText" dxfId="14" priority="23" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="59" priority="44" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C25)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="58" priority="36" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="12" priority="16" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="57" priority="37" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="11" priority="17" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="56" priority="38" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C27:C29">
-    <cfRule type="containsText" dxfId="10" priority="18" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="55" priority="39" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",C27)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C25:C29">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="34">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -21445,32 +22942,32 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C7">
-    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="実装済">
+    <cfRule type="containsText" dxfId="54" priority="29" operator="containsText" text="実装済">
       <formula>NOT(ISERROR(SEARCH("実装済",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C7">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="実装中">
+    <cfRule type="containsText" dxfId="53" priority="30" operator="containsText" text="実装中">
       <formula>NOT(ISERROR(SEARCH("実装中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C7">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="作成中">
+    <cfRule type="containsText" dxfId="52" priority="31" operator="containsText" text="作成中">
       <formula>NOT(ISERROR(SEARCH("作成中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C7">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="修正中">
+    <cfRule type="containsText" dxfId="51" priority="32" operator="containsText" text="修正中">
       <formula>NOT(ISERROR(SEARCH("修正中",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B6:C7">
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="完了">
+    <cfRule type="containsText" dxfId="50" priority="33" operator="containsText" text="完了">
       <formula>NOT(ISERROR(SEARCH("完了",B6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6:C7">
-    <cfRule type="dataBar" priority="7">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -21484,31 +22981,145 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8:C8">
+    <cfRule type="containsText" dxfId="49" priority="23" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="containsText" dxfId="48" priority="24" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="containsText" dxfId="47" priority="25" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="containsText" dxfId="46" priority="26" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B8:C8">
+    <cfRule type="containsText" dxfId="45" priority="27" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B8)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C8">
+    <cfRule type="dataBar" priority="22">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AC91A029-61E1-41EC-8700-002DA819F13F}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="containsText" dxfId="19" priority="17" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="containsText" dxfId="18" priority="18" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="containsText" dxfId="17" priority="19" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="containsText" dxfId="16" priority="20" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B9:B15">
+    <cfRule type="containsText" dxfId="15" priority="21" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="containsText" dxfId="14" priority="12" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="containsText" dxfId="13" priority="13" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="containsText" dxfId="12" priority="14" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="containsText" dxfId="11" priority="15" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B19">
+    <cfRule type="containsText" dxfId="10" priority="16" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",B16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C15">
+    <cfRule type="containsText" dxfId="9" priority="7" operator="containsText" text="実装済">
+      <formula>NOT(ISERROR(SEARCH("実装済",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C15">
+    <cfRule type="containsText" dxfId="8" priority="8" operator="containsText" text="実装中">
+      <formula>NOT(ISERROR(SEARCH("実装中",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C15">
+    <cfRule type="containsText" dxfId="7" priority="9" operator="containsText" text="作成中">
+      <formula>NOT(ISERROR(SEARCH("作成中",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C15">
+    <cfRule type="containsText" dxfId="6" priority="10" operator="containsText" text="修正中">
+      <formula>NOT(ISERROR(SEARCH("修正中",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C15">
+    <cfRule type="containsText" dxfId="5" priority="11" operator="containsText" text="完了">
+      <formula>NOT(ISERROR(SEARCH("完了",C9)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="実装済">
-      <formula>NOT(ISERROR(SEARCH("実装済",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+      <formula>NOT(ISERROR(SEARCH("実装済",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="実装中">
-      <formula>NOT(ISERROR(SEARCH("実装中",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+      <formula>NOT(ISERROR(SEARCH("実装中",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="作成中">
-      <formula>NOT(ISERROR(SEARCH("作成中",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+      <formula>NOT(ISERROR(SEARCH("作成中",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="containsText" dxfId="1" priority="5" operator="containsText" text="修正中">
-      <formula>NOT(ISERROR(SEARCH("修正中",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B8:C8">
+      <formula>NOT(ISERROR(SEARCH("修正中",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C16:C19">
     <cfRule type="containsText" dxfId="0" priority="6" operator="containsText" text="完了">
-      <formula>NOT(ISERROR(SEARCH("完了",B8)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C8">
+      <formula>NOT(ISERROR(SEARCH("完了",C16)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C9:C19">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -21517,7 +23128,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{AC91A029-61E1-41EC-8700-002DA819F13F}</x14:id>
+          <x14:id>{639552F0-C8E2-490B-9AE5-202E41FA1641}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -21545,7 +23156,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C4:C5 C9:C24</xm:sqref>
+          <xm:sqref>C4:C5 C20:C24</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{521083EB-3F0E-4695-88DE-814AD7ECBFE0}">
@@ -21592,6 +23203,21 @@
           </x14:cfRule>
           <xm:sqref>C8</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{639552F0-C8E2-490B-9AE5-202E41FA1641}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>C9:C19</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
